--- a/docs/db/数据库设计.xlsx
+++ b/docs/db/数据库设计.xlsx
@@ -11,15 +11,14 @@
     <sheet name="一览" sheetId="1" r:id="rId2"/>
     <sheet name="用户模块" sheetId="2" r:id="rId3"/>
     <sheet name="投稿模块" sheetId="3" r:id="rId4"/>
-    <sheet name="统计模块" sheetId="5" r:id="rId5"/>
-    <sheet name="管理员操作的模块" sheetId="4" r:id="rId6"/>
+    <sheet name="管理员操作的模块" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="404">
   <si>
     <t>NO.</t>
   </si>
@@ -39,7 +38,7 @@
     <t>修改人</t>
   </si>
   <si>
-    <t>数据库名：待定</t>
+    <t>数据库名：socialApp</t>
   </si>
   <si>
     <t>表名(逻辑名)</t>
@@ -78,6 +77,21 @@
     <t>t_age_verify_img</t>
   </si>
   <si>
+    <t>用户隐私设置表</t>
+  </si>
+  <si>
+    <t>t_user_privacy_settings</t>
+  </si>
+  <si>
+    <t>用户通知设置表</t>
+  </si>
+  <si>
+    <t>t_user_notify_settings</t>
+  </si>
+  <si>
+    <t>待定</t>
+  </si>
+  <si>
     <t>粉丝表</t>
   </si>
   <si>
@@ -102,7 +116,7 @@
     <t>留言表</t>
   </si>
   <si>
-    <t>t_message</t>
+    <t>t_letter</t>
   </si>
   <si>
     <t>用户的留言表</t>
@@ -228,18 +242,6 @@
     <t>t_like</t>
   </si>
   <si>
-    <t>统计模块</t>
-  </si>
-  <si>
-    <t>设备信息表</t>
-  </si>
-  <si>
-    <t>t_device</t>
-  </si>
-  <si>
-    <t>登录设备信息表</t>
-  </si>
-  <si>
     <t>管理员操作的模块</t>
   </si>
   <si>
@@ -606,6 +608,45 @@
     <t>用户授权ID</t>
   </si>
   <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>平台</t>
+  </si>
+  <si>
+    <t>0: "Andorid", 1: "IOS"</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>型号</t>
+  </si>
+  <si>
+    <t>skd_version</t>
+  </si>
+  <si>
+    <t>SDK版本</t>
+  </si>
+  <si>
+    <t>用户创建的组的表（t_group）</t>
+  </si>
+  <si>
+    <t>※用户创建的组</t>
+  </si>
+  <si>
+    <t>sys_version</t>
+  </si>
+  <si>
+    <t>系统版本</t>
+  </si>
+  <si>
     <t>login_ip</t>
   </si>
   <si>
@@ -618,39 +659,18 @@
     <t>登录地址</t>
   </si>
   <si>
+    <t>owner_id</t>
+  </si>
+  <si>
+    <t>创建人ID</t>
+  </si>
+  <si>
     <t>login_at</t>
   </si>
   <si>
     <t>登录时间</t>
   </si>
   <si>
-    <t>login_platform</t>
-  </si>
-  <si>
-    <t>登录平台</t>
-  </si>
-  <si>
-    <t>0: "Andorid", 1: "IOS"</t>
-  </si>
-  <si>
-    <t>用户创建的组的表（t_group）</t>
-  </si>
-  <si>
-    <t>※用户创建的组</t>
-  </si>
-  <si>
-    <t>login_device_model</t>
-  </si>
-  <si>
-    <t>登录设备型号</t>
-  </si>
-  <si>
-    <t>owner_id</t>
-  </si>
-  <si>
-    <t>创建人ID</t>
-  </si>
-  <si>
     <t>group_category_id</t>
   </si>
   <si>
@@ -672,13 +692,31 @@
     <t>VARCHAR(1000)</t>
   </si>
   <si>
+    <t>is_need_agree</t>
+  </si>
+  <si>
+    <t>用户加入是否需要审核</t>
+  </si>
+  <si>
     <t>消息通知表（t_notice）</t>
   </si>
   <si>
-    <t>is_need_agree</t>
-  </si>
-  <si>
-    <t>用户加入是否需要审核</t>
+    <t>is_calling_top</t>
+  </si>
+  <si>
+    <t>是否通话置顶</t>
+  </si>
+  <si>
+    <t>is_only_age_verfy</t>
+  </si>
+  <si>
+    <t>是否仅允许年龄认证的用户加入</t>
+  </si>
+  <si>
+    <t>is_only_same_gender</t>
+  </si>
+  <si>
+    <t>是否和创建者同性别的人加入</t>
   </si>
   <si>
     <t>receiver_id</t>
@@ -687,24 +725,12 @@
     <t>接收用户ID</t>
   </si>
   <si>
-    <t>is_calling_top</t>
-  </si>
-  <si>
-    <t>是否通话置顶</t>
-  </si>
-  <si>
     <t>action_user_id</t>
   </si>
   <si>
     <t>动作用户ID</t>
   </si>
   <si>
-    <t>is_only_age_verfy</t>
-  </si>
-  <si>
-    <t>是否仅允许年龄认证的用户加入</t>
-  </si>
-  <si>
     <t>action_id</t>
   </si>
   <si>
@@ -714,12 +740,6 @@
     <t>投稿ID，组ID...如果是关注则不设置</t>
   </si>
   <si>
-    <t>is_only_same_gender</t>
-  </si>
-  <si>
-    <t>是否和创建者同性别的人加入</t>
-  </si>
-  <si>
     <t>通知类型</t>
   </si>
   <si>
@@ -732,6 +752,9 @@
     <t>※用户参加的组</t>
   </si>
   <si>
+    <t>用户隐私设置表（t_user_privacy_settings）</t>
+  </si>
+  <si>
     <t>group_id</t>
   </si>
   <si>
@@ -744,33 +767,129 @@
     <t>是否加入</t>
   </si>
   <si>
-    <t>留言表（t_message）</t>
-  </si>
-  <si>
-    <t>messenger_id</t>
+    <t>is_allow_follow</t>
+  </si>
+  <si>
+    <t>是否允许直接关注</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false的话，需要用户同意后才能关注成功 </t>
+  </si>
+  <si>
+    <t>is_show_post_only_follower</t>
+  </si>
+  <si>
+    <t>是否投稿仅粉丝可见</t>
+  </si>
+  <si>
+    <t>is_write_letter_only_follower</t>
+  </si>
+  <si>
+    <t>是否仅粉丝可以留言</t>
+  </si>
+  <si>
+    <t>留言表（t_letter）</t>
+  </si>
+  <si>
+    <t>is_show_join_group</t>
+  </si>
+  <si>
+    <t>是否展示加入的组</t>
+  </si>
+  <si>
+    <t>is_chat_only_follow</t>
+  </si>
+  <si>
+    <t>是否仅允许关注的人发送消息</t>
+  </si>
+  <si>
+    <t>is_call_invite_only_follow</t>
+  </si>
+  <si>
+    <t>是否仅允许关注的人发送通话邀请</t>
+  </si>
+  <si>
+    <t>is_group_invite_only_follow</t>
+  </si>
+  <si>
+    <t>是否仅允许关注的人发送加入组的邀请</t>
+  </si>
+  <si>
+    <t>letter_user_id</t>
   </si>
   <si>
     <t>留言人ID</t>
   </si>
   <si>
-    <t>message</t>
+    <t>is_allow_search</t>
+  </si>
+  <si>
+    <t>是否可被用户搜索</t>
+  </si>
+  <si>
+    <t>letter</t>
   </si>
   <si>
     <t>留言内容</t>
   </si>
   <si>
+    <t>is_hide_online_status</t>
+  </si>
+  <si>
+    <t>是否隐藏在线状态</t>
+  </si>
+  <si>
+    <t>会员专用</t>
+  </si>
+  <si>
+    <t>is_hide_access_history</t>
+  </si>
+  <si>
+    <t>是否隐藏访问记录</t>
+  </si>
+  <si>
+    <t>用户通知设置表（t_user_notify_settings）</t>
+  </si>
+  <si>
     <t>管理员表（t_admin）</t>
   </si>
   <si>
     <t>手机号码</t>
   </si>
   <si>
+    <t>is_like</t>
+  </si>
+  <si>
+    <t>是否开启点赞通知</t>
+  </si>
+  <si>
+    <t>is_comment</t>
+  </si>
+  <si>
+    <t>是否开启评论通知</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
     <t>密码</t>
   </si>
   <si>
+    <t>is_follower</t>
+  </si>
+  <si>
+    <t>是否开启新增粉丝通知</t>
+  </si>
+  <si>
+    <t>is_letter</t>
+  </si>
+  <si>
+    <t>是否开启留言通知</t>
+  </si>
+  <si>
     <t>real_name</t>
   </si>
   <si>
@@ -948,9 +1067,6 @@
     <t>房间ID</t>
   </si>
   <si>
-    <t>is_like</t>
-  </si>
-  <si>
     <t>是否点赞</t>
   </si>
   <si>
@@ -991,45 +1107,6 @@
   </si>
   <si>
     <t>图片缩略图URL</t>
-  </si>
-  <si>
-    <t>设备信息表（t_device）</t>
-  </si>
-  <si>
-    <t>platform</t>
-  </si>
-  <si>
-    <t>平台</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>型号</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>品牌</t>
-  </si>
-  <si>
-    <t>skd_version</t>
-  </si>
-  <si>
-    <t>SDK版本</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>系统版本</t>
-  </si>
-  <si>
-    <t>manufacturer</t>
-  </si>
-  <si>
-    <t>制造商</t>
   </si>
   <si>
     <t>组分类表（t_group_category）</t>
@@ -1160,12 +1237,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1185,6 +1262,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1192,30 +1282,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1228,16 +1304,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1252,15 +1328,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1274,7 +1349,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1283,14 +1358,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1312,6 +1379,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1321,8 +1396,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1330,7 +1420,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1387,7 +1477,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,43 +1513,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1453,43 +1543,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1507,7 +1567,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1519,13 +1603,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,19 +1621,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1617,42 +1707,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1687,6 +1746,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1702,13 +1788,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1717,31 +1807,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1750,119 +1840,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1899,7 +1989,22 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1913,6 +2018,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1931,9 +2039,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2000,6 +2105,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1108710</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>134620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>113665</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="32313534383335343b32313534383334323bcecabac5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10420350" y="17327245"/>
+          <a:ext cx="4425315" cy="1969770"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2307,22 +2461,22 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2330,30 +2484,30 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="17" customHeight="1" spans="1:6">
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="24"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="9"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="24"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="9"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -2362,8 +2516,8 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
@@ -2372,8 +2526,8 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
@@ -2382,8 +2536,8 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
@@ -2392,8 +2546,8 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:6">
@@ -2402,8 +2556,8 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="9"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:6">
@@ -2412,8 +2566,8 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="9"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:6">
@@ -2422,8 +2576,8 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="9"/>
     </row>
   </sheetData>
@@ -2438,13 +2592,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
@@ -2454,470 +2608,446 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="16"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="16"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="16"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="21"/>
+      <c r="B8" s="20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="16"/>
-      <c r="B8" s="15" t="s">
+      <c r="C8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="16"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>24</v>
+      <c r="D9" s="20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="16"/>
-      <c r="B10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="20" t="s">
         <v>28</v>
       </c>
+      <c r="D10" s="20" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="16"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="16"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>31</v>
+      <c r="D12" s="20" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="16"/>
-      <c r="B13" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>33</v>
+      <c r="C13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="16"/>
-      <c r="B14" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="15" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>35</v>
+      <c r="C14" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="16"/>
-      <c r="B15" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>37</v>
+      <c r="C15" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="17" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>39</v>
+      <c r="C16" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="17" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="C17" s="20" t="s">
         <v>43</v>
       </c>
+      <c r="D17" s="20" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="21"/>
+      <c r="B19" s="23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17" t="s">
+      <c r="C19" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="D19" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="17" t="s">
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="21"/>
+      <c r="B20" s="23" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="18"/>
-      <c r="B20" s="17" t="s">
+      <c r="C20" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="D20" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="17" t="s">
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="21"/>
+      <c r="B21" s="23" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="19" t="s">
+      <c r="C21" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="D21" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="15" t="s">
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="24"/>
+      <c r="B22" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="C22" s="23" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="19"/>
-      <c r="B22" s="15" t="s">
+      <c r="D22" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="15" t="s">
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="B23" s="20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="19"/>
-      <c r="B23" s="15" t="s">
+      <c r="C23" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="D23" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="19"/>
-      <c r="B24" s="15" t="s">
+      <c r="A24" s="25"/>
+      <c r="B24" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="19"/>
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="25"/>
+      <c r="B25" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="20" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="19"/>
-      <c r="B26" s="15" t="s">
+      <c r="A26" s="25"/>
+      <c r="B26" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>67</v>
+      <c r="D26" s="20" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="25"/>
+      <c r="B27" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="25"/>
+      <c r="B28" s="20" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="16"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="C28" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="16"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="A29" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="16"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="16"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="16"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="18"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>76</v>
-      </c>
+      <c r="A34" s="21"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="16"/>
-      <c r="B35" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>77</v>
-      </c>
+      <c r="A35" s="24"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="16"/>
-      <c r="B36" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>79</v>
-      </c>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="16"/>
-      <c r="B37" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>81</v>
-      </c>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="16"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="16"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="18"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A4:A20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="A34:A40"/>
+  <mergeCells count="3">
+    <mergeCell ref="A4:A22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A29:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2930,8 +3060,8 @@
   <sheetPr/>
   <dimension ref="A1:T150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2945,34 +3075,34 @@
     <col min="9" max="9" width="7.125" style="8" customWidth="1"/>
     <col min="10" max="10" width="32.2" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.625" customWidth="1"/>
-    <col min="13" max="13" width="15.4333333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.15" customWidth="1"/>
+    <col min="13" max="13" width="23.75" style="1" customWidth="1"/>
     <col min="14" max="14" width="13.75" style="1" customWidth="1"/>
     <col min="15" max="17" width="3.375" style="1" customWidth="1"/>
     <col min="18" max="18" width="3.5" style="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="31.7583333333333" style="1" customWidth="1"/>
+    <col min="20" max="20" width="42" style="1" customWidth="1"/>
     <col min="21" max="16375" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="9:9">
@@ -2980,103 +3110,103 @@
     </row>
     <row r="6" spans="2:19">
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S6" s="8"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:20">
       <c r="B7" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="O7" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="S7" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="T7" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:20">
       <c r="B8" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="9"/>
       <c r="J8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -3085,39 +3215,39 @@
     </row>
     <row r="9" s="1" customFormat="1" spans="2:20">
       <c r="B9" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="5"/>
       <c r="L9" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R9" s="7"/>
       <c r="S9" s="9"/>
@@ -3125,13 +3255,13 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="2:20">
       <c r="B10" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
@@ -3140,18 +3270,18 @@
       <c r="I10" s="9"/>
       <c r="J10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R10" s="7"/>
       <c r="S10" s="9"/>
@@ -3159,13 +3289,13 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="2:20">
       <c r="B11" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
@@ -3174,13 +3304,13 @@
       <c r="I11" s="9"/>
       <c r="J11" s="5"/>
       <c r="L11" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="7"/>
@@ -3191,37 +3321,37 @@
     </row>
     <row r="12" s="1" customFormat="1" spans="2:20">
       <c r="B12" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="9"/>
       <c r="J12" s="5"/>
       <c r="L12" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R12" s="7"/>
       <c r="S12" s="9"/>
@@ -3229,13 +3359,13 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="2:20">
       <c r="B13" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
@@ -3244,20 +3374,20 @@
       <c r="I13" s="9"/>
       <c r="J13" s="5"/>
       <c r="L13" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R13" s="7"/>
       <c r="S13" s="9"/>
@@ -3265,13 +3395,13 @@
     </row>
     <row r="14" s="1" customFormat="1" spans="2:10">
       <c r="B14" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
@@ -3282,13 +3412,13 @@
     </row>
     <row r="15" s="1" customFormat="1" spans="2:12">
       <c r="B15" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
@@ -3300,13 +3430,13 @@
     </row>
     <row r="16" s="1" customFormat="1" spans="2:19">
       <c r="B16" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
@@ -3315,19 +3445,19 @@
       <c r="I16" s="9"/>
       <c r="J16" s="5"/>
       <c r="L16" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="S16" s="8"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="2:20">
       <c r="B17" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
@@ -3336,42 +3466,42 @@
       <c r="I17" s="9"/>
       <c r="J17" s="5"/>
       <c r="L17" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="2:20">
       <c r="B18" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
@@ -3380,19 +3510,19 @@
       <c r="I18" s="9"/>
       <c r="J18" s="5"/>
       <c r="L18" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
@@ -3401,39 +3531,39 @@
     </row>
     <row r="19" spans="2:20">
       <c r="B19" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="9"/>
       <c r="J19" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R19" s="7"/>
       <c r="S19" s="9"/>
@@ -3441,13 +3571,13 @@
     </row>
     <row r="20" spans="2:20">
       <c r="B20" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
@@ -3456,36 +3586,36 @@
       <c r="I20" s="9"/>
       <c r="J20" s="5"/>
       <c r="L20" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R20" s="7"/>
       <c r="S20" s="9"/>
       <c r="T20" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="2:20">
       <c r="B21" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
@@ -3494,13 +3624,13 @@
       <c r="I21" s="9"/>
       <c r="J21" s="5"/>
       <c r="L21" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O21" s="6"/>
       <c r="P21" s="7"/>
@@ -3511,13 +3641,13 @@
     </row>
     <row r="22" spans="2:20">
       <c r="B22" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
@@ -3526,20 +3656,20 @@
       <c r="I22" s="9"/>
       <c r="J22" s="5"/>
       <c r="L22" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R22" s="7"/>
       <c r="S22" s="9"/>
@@ -3547,16 +3677,16 @@
     </row>
     <row r="23" spans="2:20">
       <c r="B23" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -3564,20 +3694,20 @@
       <c r="I23" s="9"/>
       <c r="J23" s="5"/>
       <c r="L23" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R23" s="7"/>
       <c r="S23" s="9"/>
@@ -3585,16 +3715,16 @@
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -3604,13 +3734,13 @@
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="7"/>
@@ -3621,13 +3751,13 @@
     </row>
     <row r="26" spans="2:19">
       <c r="B26" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
@@ -3636,19 +3766,19 @@
       <c r="I26" s="9"/>
       <c r="J26" s="5"/>
       <c r="L26" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S26" s="8"/>
     </row>
     <row r="27" spans="2:20">
       <c r="B27" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="7"/>
@@ -3656,45 +3786,45 @@
       <c r="H27" s="7"/>
       <c r="I27" s="9"/>
       <c r="J27" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="2:20">
       <c r="B28" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
@@ -3703,19 +3833,19 @@
       <c r="I28" s="9"/>
       <c r="J28" s="5"/>
       <c r="L28" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
@@ -3724,97 +3854,97 @@
     </row>
     <row r="29" spans="2:20">
       <c r="B29" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="9"/>
       <c r="J29" s="5"/>
       <c r="L29" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R29" s="7"/>
       <c r="S29" s="9"/>
       <c r="T29" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="2:20">
       <c r="B30" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="9"/>
       <c r="J30" s="5"/>
       <c r="L30" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R30" s="7"/>
       <c r="S30" s="9"/>
       <c r="T30" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="12:20">
       <c r="L31" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O31" s="6"/>
       <c r="P31" s="7"/>
@@ -3825,20 +3955,20 @@
     </row>
     <row r="32" spans="12:20">
       <c r="L32" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P32" s="7"/>
       <c r="Q32" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R32" s="7"/>
       <c r="S32" s="9"/>
@@ -3846,23 +3976,23 @@
     </row>
     <row r="33" spans="2:20">
       <c r="B33" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R33" s="7"/>
       <c r="S33" s="9"/>
@@ -3870,48 +4000,48 @@
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -3920,111 +4050,111 @@
     </row>
     <row r="36" spans="2:19">
       <c r="B36" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="9"/>
       <c r="J36" s="5"/>
       <c r="L36" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="S36" s="8"/>
     </row>
     <row r="37" spans="2:20">
       <c r="B37" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="9"/>
       <c r="J37" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="2:20">
       <c r="B38" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="9"/>
       <c r="J38" s="5"/>
       <c r="L38" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
@@ -4033,37 +4163,37 @@
     </row>
     <row r="39" spans="2:20">
       <c r="B39" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="9"/>
       <c r="J39" s="5"/>
       <c r="L39" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R39" s="7"/>
       <c r="S39" s="9"/>
@@ -4071,13 +4201,13 @@
     </row>
     <row r="40" spans="2:20">
       <c r="B40" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
@@ -4085,16 +4215,16 @@
       <c r="H40" s="7"/>
       <c r="I40" s="9"/>
       <c r="J40" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="7"/>
@@ -4105,13 +4235,13 @@
     </row>
     <row r="41" spans="2:20">
       <c r="B41" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="7"/>
@@ -4120,13 +4250,13 @@
       <c r="I41" s="9"/>
       <c r="J41" s="5"/>
       <c r="L41" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="7"/>
@@ -4137,32 +4267,32 @@
     </row>
     <row r="42" spans="2:20">
       <c r="B42" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="9"/>
       <c r="J42" s="5"/>
       <c r="L42" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O42" s="6"/>
       <c r="P42" s="7"/>
@@ -4173,39 +4303,39 @@
     </row>
     <row r="43" spans="2:20">
       <c r="B43" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="9"/>
       <c r="J43" s="5"/>
       <c r="L43" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P43" s="7"/>
       <c r="Q43" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R43" s="7"/>
       <c r="S43" s="9"/>
@@ -4213,20 +4343,20 @@
     </row>
     <row r="44" spans="12:20">
       <c r="L44" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P44" s="7"/>
       <c r="Q44" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R44" s="7"/>
       <c r="S44" s="9"/>
@@ -4234,124 +4364,124 @@
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="2:19">
       <c r="B47" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="S47" s="8"/>
     </row>
     <row r="48" spans="2:20">
       <c r="B48" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="9"/>
       <c r="J48" s="5"/>
       <c r="L48" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S48" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="2:20">
       <c r="B49" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="9"/>
       <c r="J49" s="5"/>
       <c r="L49" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
@@ -4360,41 +4490,41 @@
     </row>
     <row r="50" spans="2:20">
       <c r="B50" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="9"/>
       <c r="J50" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P50" s="7"/>
       <c r="Q50" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R50" s="7"/>
       <c r="S50" s="9"/>
@@ -4402,13 +4532,13 @@
     </row>
     <row r="51" spans="2:20">
       <c r="B51" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
@@ -4417,20 +4547,20 @@
       <c r="I51" s="9"/>
       <c r="J51" s="5"/>
       <c r="L51" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P51" s="7"/>
       <c r="Q51" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R51" s="7"/>
       <c r="S51" s="9"/>
@@ -4438,68 +4568,72 @@
     </row>
     <row r="52" spans="2:20">
       <c r="B52" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="9"/>
       <c r="J52" s="5"/>
       <c r="L52" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="O52" s="6"/>
+        <v>142</v>
+      </c>
+      <c r="O52" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
       <c r="S52" s="9"/>
-      <c r="T52" s="5"/>
+      <c r="T52" s="5" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="53" spans="2:20">
       <c r="B53" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="9"/>
       <c r="J53" s="5"/>
       <c r="L53" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="O53" s="6"/>
       <c r="P53" s="7"/>
@@ -4510,17 +4644,15 @@
     </row>
     <row r="54" spans="12:20">
       <c r="L54" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="O54" s="6" t="s">
-        <v>101</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="O54" s="6"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
@@ -4529,40 +4661,36 @@
     </row>
     <row r="55" spans="12:20">
       <c r="L55" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="O55" s="6" t="s">
-        <v>101</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O55" s="6"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
       <c r="S55" s="9"/>
-      <c r="T55" s="5" t="s">
-        <v>203</v>
-      </c>
+      <c r="T55" s="5"/>
     </row>
     <row r="56" spans="2:20">
       <c r="B56" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="O56" s="6"/>
       <c r="P56" s="7"/>
@@ -4573,40 +4701,40 @@
     </row>
     <row r="57" spans="2:20">
       <c r="B57" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="O57" s="6"/>
       <c r="P57" s="7"/>
@@ -4617,135 +4745,163 @@
     </row>
     <row r="58" spans="2:20">
       <c r="B58" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="9"/>
       <c r="J58" s="5"/>
       <c r="L58" s="5" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="O58" s="6" t="s">
-        <v>101</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O58" s="6"/>
       <c r="P58" s="7"/>
-      <c r="Q58" s="7" t="s">
-        <v>101</v>
-      </c>
+      <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
       <c r="S58" s="9"/>
       <c r="T58" s="5"/>
     </row>
     <row r="59" spans="2:20">
       <c r="B59" s="5" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="9"/>
       <c r="J59" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O59" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P59" s="7"/>
-      <c r="Q59" s="7" t="s">
-        <v>101</v>
-      </c>
+      <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
       <c r="S59" s="9"/>
       <c r="T59" s="5"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:20">
       <c r="B60" s="5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="9"/>
       <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="2:10">
+      <c r="L60" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="O60" s="6"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="5"/>
+    </row>
+    <row r="61" spans="2:20">
       <c r="B61" s="5" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="9"/>
       <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="2:19">
+      <c r="L61" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O61" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="R61" s="7"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="5"/>
+    </row>
+    <row r="62" spans="2:20">
       <c r="B62" s="5" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="7"/>
@@ -4753,20 +4909,35 @@
       <c r="H62" s="7"/>
       <c r="I62" s="9"/>
       <c r="J62" s="5"/>
-      <c r="L62" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="S62" s="8"/>
-    </row>
-    <row r="63" spans="2:20">
+      <c r="L62" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O62" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="R62" s="7"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="5"/>
+    </row>
+    <row r="63" spans="2:10">
       <c r="B63" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="7"/>
@@ -4774,43 +4945,16 @@
       <c r="H63" s="7"/>
       <c r="I63" s="9"/>
       <c r="J63" s="5"/>
-      <c r="L63" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="N63" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="O63" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="P63" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q63" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="R63" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="S63" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="T63" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="2:20">
+    </row>
+    <row r="64" spans="2:10">
       <c r="B64" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="7"/>
@@ -4818,35 +4962,16 @@
       <c r="H64" s="7"/>
       <c r="I64" s="9"/>
       <c r="J64" s="5"/>
-      <c r="L64" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="M64" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="N64" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="O64" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="P64" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="9"/>
-      <c r="T64" s="5"/>
-    </row>
-    <row r="65" spans="2:20">
+    </row>
+    <row r="65" spans="2:19">
       <c r="B65" s="5" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
@@ -4854,35 +4979,20 @@
       <c r="H65" s="7"/>
       <c r="I65" s="9"/>
       <c r="J65" s="5"/>
-      <c r="L65" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="M65" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="N65" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="O65" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="R65" s="7"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="5"/>
+      <c r="L65" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="S65" s="8"/>
     </row>
     <row r="66" spans="2:20">
       <c r="B66" s="5" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
@@ -4890,35 +5000,43 @@
       <c r="H66" s="7"/>
       <c r="I66" s="9"/>
       <c r="J66" s="5"/>
-      <c r="L66" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="M66" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="N66" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="O66" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="R66" s="7"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="5"/>
+      <c r="L66" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P66" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q66" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R66" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="S66" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="67" spans="2:20">
       <c r="B67" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="7"/>
@@ -4927,24 +5045,24 @@
       <c r="I67" s="9"/>
       <c r="J67" s="5"/>
       <c r="L67" s="5" t="s">
-        <v>228</v>
+        <v>99</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>229</v>
+        <v>100</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O67" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="P67" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="P67" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
       <c r="S67" s="9"/>
-      <c r="T67" s="5" t="s">
-        <v>230</v>
-      </c>
+      <c r="T67" s="5"/>
     </row>
     <row r="68" spans="2:20">
       <c r="B68" s="5" t="s">
@@ -4954,7 +5072,7 @@
         <v>232</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="7"/>
@@ -4963,36 +5081,34 @@
       <c r="I68" s="9"/>
       <c r="J68" s="5"/>
       <c r="L68" s="5" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P68" s="7"/>
       <c r="Q68" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R68" s="7"/>
       <c r="S68" s="9"/>
-      <c r="T68" s="5" t="s">
-        <v>234</v>
-      </c>
+      <c r="T68" s="5"/>
     </row>
     <row r="69" spans="2:20">
       <c r="B69" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="7"/>
@@ -5001,210 +5117,304 @@
       <c r="I69" s="9"/>
       <c r="J69" s="5"/>
       <c r="L69" s="5" t="s">
-        <v>116</v>
+        <v>235</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>117</v>
+        <v>236</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="O69" s="6"/>
+        <v>101</v>
+      </c>
+      <c r="O69" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
+      <c r="Q69" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="R69" s="7"/>
       <c r="S69" s="9"/>
       <c r="T69" s="5"/>
     </row>
     <row r="70" spans="2:20">
       <c r="B70" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="9"/>
       <c r="J70" s="5"/>
       <c r="L70" s="5" t="s">
-        <v>121</v>
+        <v>237</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>122</v>
+        <v>238</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O70" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P70" s="7"/>
-      <c r="Q70" s="7" t="s">
-        <v>101</v>
-      </c>
+      <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
       <c r="S70" s="9"/>
-      <c r="T70" s="5"/>
+      <c r="T70" s="5" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="71" spans="2:20">
       <c r="B71" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="9"/>
       <c r="J71" s="5"/>
       <c r="L71" s="5" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>126</v>
+        <v>240</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="O71" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P71" s="7"/>
       <c r="Q71" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R71" s="7"/>
       <c r="S71" s="9"/>
-      <c r="T71" s="5"/>
-    </row>
-    <row r="74" spans="2:4">
+      <c r="T71" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="72" spans="12:20">
+      <c r="L72" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N72" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="O72" s="6"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="5"/>
+    </row>
+    <row r="73" spans="12:20">
+      <c r="L73" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M73" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N73" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O73" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="R73" s="7"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="5"/>
+    </row>
+    <row r="74" spans="2:20">
       <c r="B74" s="2" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>236</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O74" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="R74" s="7"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="5"/>
     </row>
     <row r="75" spans="2:10">
       <c r="B75" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="2:10">
       <c r="B76" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
       <c r="I76" s="9"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:19">
       <c r="B77" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="9"/>
       <c r="J77" s="5"/>
-    </row>
-    <row r="78" spans="2:10">
+      <c r="L77" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="S77" s="8"/>
+    </row>
+    <row r="78" spans="2:20">
       <c r="B78" s="5" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="9"/>
       <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="2:10">
+      <c r="L78" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P78" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q78" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R78" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="S78" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="T78" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20">
       <c r="B79" s="5" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="7"/>
@@ -5212,157 +5422,326 @@
       <c r="H79" s="7"/>
       <c r="I79" s="9"/>
       <c r="J79" s="5"/>
-    </row>
-    <row r="80" spans="2:10">
+      <c r="L79" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M79" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O79" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P79" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="5"/>
+    </row>
+    <row r="80" spans="2:20">
       <c r="B80" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="9"/>
       <c r="J80" s="5"/>
-    </row>
-    <row r="81" spans="2:10">
+      <c r="L80" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M80" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N80" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O80" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="R80" s="7"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="5"/>
+    </row>
+    <row r="81" spans="2:20">
       <c r="B81" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="9"/>
       <c r="J81" s="5"/>
-    </row>
-    <row r="84" spans="2:2">
+      <c r="L81" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="M81" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="N81" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="O81" s="6"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="T81" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="82" spans="12:20">
+      <c r="L82" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="M82" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="N82" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="O82" s="6"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="15"/>
+      <c r="T82" s="5"/>
+    </row>
+    <row r="83" spans="12:20">
+      <c r="L83" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="M83" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="N83" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="O83" s="6"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="15"/>
+      <c r="T83" s="5"/>
+    </row>
+    <row r="84" spans="2:20">
       <c r="B84" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10">
+        <v>257</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="M84" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="N84" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="O84" s="6"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="T84" s="5"/>
+    </row>
+    <row r="85" spans="2:19">
       <c r="B85" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10">
+        <v>98</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="M85" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="N85" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="O85" s="6"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="15"/>
+    </row>
+    <row r="86" spans="2:20">
       <c r="B86" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
       <c r="I86" s="9"/>
       <c r="J86" s="5"/>
-    </row>
-    <row r="87" spans="2:10">
+      <c r="L86" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="M86" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N86" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="O86" s="6"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="15"/>
+      <c r="T86" s="5"/>
+    </row>
+    <row r="87" spans="2:20">
       <c r="B87" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="9"/>
       <c r="J87" s="5"/>
-    </row>
-    <row r="88" spans="2:10">
+      <c r="L87" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="M87" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="N87" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="O87" s="6"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="15"/>
+      <c r="T87" s="5"/>
+    </row>
+    <row r="88" spans="2:20">
       <c r="B88" s="5" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F88" s="7"/>
       <c r="G88" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="9"/>
       <c r="J88" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10">
+        <v>148</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="M88" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="N88" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="O88" s="6"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="T88" s="5"/>
+    </row>
+    <row r="89" spans="2:20">
       <c r="B89" s="5" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="7"/>
@@ -5370,16 +5749,33 @@
       <c r="H89" s="7"/>
       <c r="I89" s="9"/>
       <c r="J89" s="5"/>
-    </row>
-    <row r="90" spans="2:10">
+      <c r="L89" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="M89" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="N89" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="O89" s="6"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="15"/>
+      <c r="T89" s="16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="90" spans="2:20">
       <c r="B90" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="7"/>
@@ -5387,132 +5783,286 @@
       <c r="H90" s="7"/>
       <c r="I90" s="9"/>
       <c r="J90" s="5"/>
-    </row>
-    <row r="91" spans="2:10">
+      <c r="L90" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="M90" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="N90" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="O90" s="6"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="15"/>
+      <c r="T90" s="16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="91" spans="2:20">
       <c r="B91" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H91" s="7"/>
       <c r="I91" s="9"/>
       <c r="J91" s="5"/>
-    </row>
-    <row r="92" spans="2:10">
+      <c r="L91" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M91" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N91" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O91" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="R91" s="7"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="5"/>
+    </row>
+    <row r="92" spans="2:20">
       <c r="B92" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="9"/>
       <c r="J92" s="5"/>
-    </row>
-    <row r="96" spans="2:2">
+      <c r="L92" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M92" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="N92" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O92" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="R92" s="7"/>
+      <c r="S92" s="9"/>
+      <c r="T92" s="5"/>
+    </row>
+    <row r="93" spans="12:20">
+      <c r="L93" s="12"/>
+      <c r="M93" s="13"/>
+      <c r="N93" s="13"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="13"/>
+    </row>
+    <row r="95" spans="12:19">
+      <c r="L95" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="S95" s="8"/>
+    </row>
+    <row r="96" spans="2:20">
       <c r="B96" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10">
+        <v>278</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M96" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O96" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P96" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q96" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R96" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="S96" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="T96" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="2:20">
       <c r="B97" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10">
+        <v>98</v>
+      </c>
+      <c r="L97" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M97" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N97" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O97" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P97" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="9"/>
+      <c r="T97" s="5"/>
+    </row>
+    <row r="98" spans="2:20">
       <c r="B98" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
       <c r="I98" s="9"/>
       <c r="J98" s="5"/>
-    </row>
-    <row r="99" spans="2:10">
+      <c r="L98" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M98" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N98" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O98" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="R98" s="7"/>
+      <c r="S98" s="9"/>
+      <c r="T98" s="5"/>
+    </row>
+    <row r="99" spans="2:20">
       <c r="B99" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="9"/>
       <c r="J99" s="5"/>
-    </row>
-    <row r="100" spans="2:10">
+      <c r="L99" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="M99" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="N99" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="O99" s="6"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7"/>
+      <c r="S99" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="T99" s="5"/>
+    </row>
+    <row r="100" spans="2:20">
       <c r="B100" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="7"/>
@@ -5520,96 +6070,165 @@
       <c r="H100" s="7"/>
       <c r="I100" s="9"/>
       <c r="J100" s="5"/>
-    </row>
-    <row r="101" spans="2:10">
+      <c r="L100" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="M100" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="N100" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="O100" s="6"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="T100" s="5"/>
+    </row>
+    <row r="101" spans="2:20">
       <c r="B101" s="5" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="7"/>
       <c r="G101" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H101" s="7"/>
       <c r="I101" s="9"/>
       <c r="J101" s="5"/>
-    </row>
-    <row r="102" spans="2:10">
+      <c r="L101" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="M101" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="N101" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="O101" s="6"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7"/>
+      <c r="S101" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="T101" s="5"/>
+    </row>
+    <row r="102" spans="2:20">
       <c r="B102" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F102" s="7"/>
       <c r="G102" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H102" s="7"/>
       <c r="I102" s="9"/>
       <c r="J102" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10">
+        <v>143</v>
+      </c>
+      <c r="L102" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="M102" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="N102" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="O102" s="6"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="7"/>
+      <c r="R102" s="7"/>
+      <c r="S102" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="T102" s="5"/>
+    </row>
+    <row r="103" spans="2:20">
       <c r="B103" s="5" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="7"/>
       <c r="G103" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="9"/>
       <c r="J103" s="5"/>
-    </row>
-    <row r="104" spans="2:10">
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="6"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7"/>
+      <c r="S103" s="15"/>
+      <c r="T103" s="5"/>
+    </row>
+    <row r="104" spans="2:20">
       <c r="B104" s="5" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="7"/>
       <c r="G104" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H104" s="7"/>
       <c r="I104" s="9"/>
       <c r="J104" s="5"/>
-    </row>
-    <row r="105" spans="2:10">
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="7"/>
+      <c r="Q104" s="7"/>
+      <c r="R104" s="7"/>
+      <c r="S104" s="15"/>
+      <c r="T104" s="5"/>
+    </row>
+    <row r="105" spans="2:20">
       <c r="B105" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="7"/>
@@ -5617,18 +6236,27 @@
       <c r="H105" s="7"/>
       <c r="I105" s="9"/>
       <c r="J105" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="106" spans="2:10">
+        <v>183</v>
+      </c>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="7"/>
+      <c r="R105" s="7"/>
+      <c r="S105" s="15"/>
+      <c r="T105" s="5"/>
+    </row>
+    <row r="106" spans="2:20">
       <c r="B106" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="7"/>
@@ -5636,44 +6264,62 @@
       <c r="H106" s="7"/>
       <c r="I106" s="9"/>
       <c r="J106" s="5"/>
-    </row>
-    <row r="107" spans="2:10">
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="6"/>
+      <c r="P106" s="7"/>
+      <c r="Q106" s="7"/>
+      <c r="R106" s="7"/>
+      <c r="S106" s="15"/>
+      <c r="T106" s="5"/>
+    </row>
+    <row r="107" spans="2:20">
       <c r="B107" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F107" s="7"/>
       <c r="G107" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H107" s="7"/>
       <c r="I107" s="9"/>
       <c r="J107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="6"/>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="7"/>
+      <c r="R107" s="7"/>
+      <c r="S107" s="15"/>
+      <c r="T107" s="5"/>
     </row>
     <row r="108" spans="2:10">
       <c r="B108" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F108" s="7"/>
       <c r="G108" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H108" s="7"/>
       <c r="I108" s="9"/>
@@ -5681,53 +6327,53 @@
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="2" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
     </row>
     <row r="112" spans="2:10">
       <c r="B112" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="113" spans="2:10">
       <c r="B113" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
@@ -5736,18 +6382,18 @@
     </row>
     <row r="114" spans="2:10">
       <c r="B114" s="5" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="7"/>
       <c r="G114" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H114" s="7"/>
       <c r="I114" s="9"/>
@@ -5755,18 +6401,18 @@
     </row>
     <row r="115" spans="2:10">
       <c r="B115" s="5" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H115" s="7"/>
       <c r="I115" s="9"/>
@@ -5774,13 +6420,13 @@
     </row>
     <row r="116" spans="2:10">
       <c r="B116" s="5" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="7"/>
@@ -5791,13 +6437,13 @@
     </row>
     <row r="117" spans="2:10">
       <c r="B117" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="7"/>
@@ -5808,20 +6454,20 @@
     </row>
     <row r="118" spans="2:10">
       <c r="B118" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F118" s="7"/>
       <c r="G118" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H118" s="7"/>
       <c r="I118" s="9"/>
@@ -5829,20 +6475,20 @@
     </row>
     <row r="119" spans="2:10">
       <c r="B119" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F119" s="7"/>
       <c r="G119" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H119" s="7"/>
       <c r="I119" s="9"/>
@@ -5850,53 +6496,53 @@
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="2" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
     </row>
     <row r="123" spans="2:10">
       <c r="B123" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J123" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="124" spans="2:10">
       <c r="B124" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
@@ -5905,18 +6551,18 @@
     </row>
     <row r="125" spans="2:10">
       <c r="B125" s="5" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="7"/>
       <c r="G125" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H125" s="7"/>
       <c r="I125" s="9"/>
@@ -5924,18 +6570,18 @@
     </row>
     <row r="126" spans="2:10">
       <c r="B126" s="5" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="7"/>
       <c r="G126" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H126" s="7"/>
       <c r="I126" s="9"/>
@@ -5943,13 +6589,13 @@
     </row>
     <row r="127" spans="2:10">
       <c r="B127" s="5" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E127" s="6"/>
       <c r="F127" s="7"/>
@@ -5960,13 +6606,13 @@
     </row>
     <row r="128" spans="2:10">
       <c r="B128" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="7"/>
@@ -5977,20 +6623,20 @@
     </row>
     <row r="129" spans="2:10">
       <c r="B129" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F129" s="7"/>
       <c r="G129" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H129" s="7"/>
       <c r="I129" s="9"/>
@@ -5998,20 +6644,20 @@
     </row>
     <row r="130" spans="2:10">
       <c r="B130" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F130" s="7"/>
       <c r="G130" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H130" s="7"/>
       <c r="I130" s="9"/>
@@ -6019,53 +6665,53 @@
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="2" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
     </row>
     <row r="134" spans="2:10">
       <c r="B134" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H134" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J134" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="135" spans="2:10">
       <c r="B135" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G135" s="7"/>
       <c r="H135" s="7"/>
@@ -6074,20 +6720,20 @@
     </row>
     <row r="136" spans="2:10">
       <c r="B136" s="5" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F136" s="7"/>
       <c r="G136" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H136" s="7"/>
       <c r="I136" s="9"/>
@@ -6095,20 +6741,20 @@
     </row>
     <row r="137" spans="2:10">
       <c r="B137" s="5" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F137" s="7"/>
       <c r="G137" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H137" s="7"/>
       <c r="I137" s="9"/>
@@ -6116,13 +6762,13 @@
     </row>
     <row r="138" spans="2:10">
       <c r="B138" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="7"/>
@@ -6133,20 +6779,20 @@
     </row>
     <row r="139" spans="2:10">
       <c r="B139" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F139" s="7"/>
       <c r="G139" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H139" s="7"/>
       <c r="I139" s="9"/>
@@ -6154,20 +6800,20 @@
     </row>
     <row r="140" spans="2:10">
       <c r="B140" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F140" s="7"/>
       <c r="G140" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H140" s="7"/>
       <c r="I140" s="9"/>
@@ -6175,53 +6821,53 @@
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="2" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
     </row>
     <row r="144" spans="2:10">
       <c r="B144" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H144" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I144" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J144" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="145" spans="2:10">
       <c r="B145" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G145" s="7"/>
       <c r="H145" s="7"/>
@@ -6230,20 +6876,20 @@
     </row>
     <row r="146" spans="2:10">
       <c r="B146" s="5" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F146" s="7"/>
       <c r="G146" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H146" s="7"/>
       <c r="I146" s="9"/>
@@ -6251,20 +6897,20 @@
     </row>
     <row r="147" spans="2:10">
       <c r="B147" s="5" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F147" s="7"/>
       <c r="G147" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H147" s="7"/>
       <c r="I147" s="9"/>
@@ -6272,13 +6918,13 @@
     </row>
     <row r="148" spans="2:10">
       <c r="B148" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E148" s="6"/>
       <c r="F148" s="7"/>
@@ -6289,20 +6935,20 @@
     </row>
     <row r="149" spans="2:10">
       <c r="B149" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F149" s="7"/>
       <c r="G149" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H149" s="7"/>
       <c r="I149" s="9"/>
@@ -6310,20 +6956,20 @@
     </row>
     <row r="150" spans="2:10">
       <c r="B150" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F150" s="7"/>
       <c r="G150" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H150" s="7"/>
       <c r="I150" s="9"/>
@@ -6333,6 +6979,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6362,7 +7009,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6376,7 +7023,7 @@
     </row>
     <row r="2" ht="14.25" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -6390,7 +7037,7 @@
     </row>
     <row r="3" ht="14.25" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -6404,7 +7051,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -6431,7 +7078,7 @@
     <row r="6" ht="14.25" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -6445,34 +7092,34 @@
     <row r="7" ht="14.25" spans="1:20">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -6486,88 +7133,88 @@
     <row r="8" ht="14.25" spans="1:20">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="9"/>
       <c r="J8" s="5"/>
       <c r="L8" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="2:20">
       <c r="B9" s="5" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="9"/>
       <c r="J9" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
@@ -6576,13 +7223,13 @@
     </row>
     <row r="10" ht="14.25" spans="2:20">
       <c r="B10" s="5" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
@@ -6591,20 +7238,20 @@
       <c r="I10" s="9"/>
       <c r="J10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R10" s="7"/>
       <c r="S10" s="9"/>
@@ -6612,60 +7259,60 @@
     </row>
     <row r="11" ht="14.25" spans="2:20">
       <c r="B11" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="9"/>
       <c r="J11" s="5" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R11" s="7"/>
       <c r="S11" s="9"/>
       <c r="T11" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:20">
       <c r="B12" s="5" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -6675,34 +7322,34 @@
       </c>
       <c r="J12" s="5"/>
       <c r="L12" s="5" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="9"/>
       <c r="T12" s="5" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="2:20">
       <c r="B13" s="5" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
@@ -6711,13 +7358,13 @@
       <c r="I13" s="9"/>
       <c r="J13" s="5"/>
       <c r="L13" s="5" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="O13" s="6"/>
       <c r="P13" s="7"/>
@@ -6728,13 +7375,13 @@
     </row>
     <row r="14" ht="14.25" spans="2:20">
       <c r="B14" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
@@ -6743,13 +7390,13 @@
       <c r="I14" s="9"/>
       <c r="J14" s="5"/>
       <c r="L14" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="7"/>
@@ -6760,13 +7407,13 @@
     </row>
     <row r="15" ht="14.25" spans="2:20">
       <c r="B15" s="5" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
@@ -6775,20 +7422,20 @@
       <c r="I15" s="9"/>
       <c r="J15" s="5"/>
       <c r="L15" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R15" s="7"/>
       <c r="S15" s="9"/>
@@ -6796,39 +7443,39 @@
     </row>
     <row r="16" ht="14.25" spans="2:20">
       <c r="B16" s="5" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="9"/>
       <c r="J16" s="5"/>
       <c r="L16" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="9"/>
@@ -6836,16 +7483,16 @@
     </row>
     <row r="17" ht="14.25" spans="2:10">
       <c r="B17" s="5" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -6855,20 +7502,20 @@
     </row>
     <row r="18" ht="14.25" spans="2:10">
       <c r="B18" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="9"/>
@@ -6876,26 +7523,26 @@
     </row>
     <row r="19" ht="14.25" spans="2:20">
       <c r="B19" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="9"/>
       <c r="J19" s="5"/>
       <c r="L19" s="2" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -6908,48 +7555,48 @@
     </row>
     <row r="20" ht="14.25" spans="12:20">
       <c r="L20" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="12:20">
       <c r="L21" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
@@ -6958,7 +7605,7 @@
     </row>
     <row r="22" ht="14.25" spans="2:20">
       <c r="B22" s="2" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -6969,16 +7616,16 @@
       <c r="I22" s="8"/>
       <c r="J22" s="1"/>
       <c r="L22" s="5" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
@@ -6988,43 +7635,43 @@
     </row>
     <row r="23" ht="14.25" spans="2:20">
       <c r="B23" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
@@ -7034,39 +7681,39 @@
     </row>
     <row r="24" ht="14.25" spans="2:20">
       <c r="B24" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="9"/>
       <c r="J24" s="5"/>
       <c r="L24" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R24" s="7"/>
       <c r="S24" s="9"/>
@@ -7074,32 +7721,32 @@
     </row>
     <row r="25" ht="14.25" spans="2:20">
       <c r="B25" s="5" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="9"/>
       <c r="J25" s="5"/>
       <c r="L25" s="5" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O25" s="6"/>
       <c r="P25" s="7"/>
@@ -7110,39 +7757,39 @@
     </row>
     <row r="26" ht="14.25" spans="2:20">
       <c r="B26" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="9"/>
       <c r="J26" s="5"/>
       <c r="L26" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R26" s="7"/>
       <c r="S26" s="9"/>
@@ -7150,13 +7797,13 @@
     </row>
     <row r="27" ht="14.25" spans="2:20">
       <c r="B27" s="5" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="7"/>
@@ -7165,20 +7812,20 @@
       <c r="I27" s="9"/>
       <c r="J27" s="5"/>
       <c r="L27" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R27" s="7"/>
       <c r="S27" s="9"/>
@@ -7186,20 +7833,20 @@
     </row>
     <row r="28" ht="14.25" spans="2:10">
       <c r="B28" s="5" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="9"/>
@@ -7207,16 +7854,16 @@
     </row>
     <row r="29" ht="14.25" spans="2:10">
       <c r="B29" s="5" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -7226,20 +7873,20 @@
     </row>
     <row r="30" ht="14.25" spans="2:10">
       <c r="B30" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="9"/>
@@ -7247,20 +7894,20 @@
     </row>
     <row r="31" ht="14.25" spans="2:10">
       <c r="B31" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="9"/>
@@ -7268,7 +7915,7 @@
     </row>
     <row r="34" ht="14.25" spans="2:10">
       <c r="B34" s="2" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -7281,48 +7928,48 @@
     </row>
     <row r="35" ht="14.25" spans="2:10">
       <c r="B35" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="2:10">
       <c r="B36" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -7331,20 +7978,20 @@
     </row>
     <row r="37" ht="14.25" spans="2:10">
       <c r="B37" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="9"/>
@@ -7352,16 +7999,16 @@
     </row>
     <row r="38" ht="14.25" spans="2:10">
       <c r="B38" s="5" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -7371,13 +8018,13 @@
     </row>
     <row r="39" ht="14.25" spans="2:10">
       <c r="B39" s="5" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
@@ -7388,36 +8035,36 @@
     </row>
     <row r="40" ht="14.25" spans="2:10">
       <c r="B40" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="9"/>
       <c r="J40" s="5" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="2:10">
       <c r="B41" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="7"/>
@@ -7428,20 +8075,20 @@
     </row>
     <row r="42" ht="14.25" spans="2:10">
       <c r="B42" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="9"/>
@@ -7449,20 +8096,20 @@
     </row>
     <row r="43" ht="14.25" spans="2:10">
       <c r="B43" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="9"/>
@@ -7470,7 +8117,7 @@
     </row>
     <row r="46" ht="14.25" spans="2:10">
       <c r="B46" s="2" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -7483,48 +8130,48 @@
     </row>
     <row r="47" ht="14.25" spans="2:10">
       <c r="B47" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="2:10">
       <c r="B48" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -7533,20 +8180,20 @@
     </row>
     <row r="49" ht="14.25" spans="2:10">
       <c r="B49" s="5" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="9"/>
@@ -7554,18 +8201,18 @@
     </row>
     <row r="50" ht="14.25" spans="2:10">
       <c r="B50" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="9"/>
@@ -7573,18 +8220,18 @@
     </row>
     <row r="51" ht="14.25" spans="2:10">
       <c r="B51" s="5" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="9"/>
@@ -7592,20 +8239,20 @@
     </row>
     <row r="52" ht="14.25" spans="2:10">
       <c r="B52" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="9"/>
@@ -7613,20 +8260,20 @@
     </row>
     <row r="53" ht="14.25" spans="2:10">
       <c r="B53" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="9"/>
@@ -7639,334 +8286,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:J10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="7" width="3.375" customWidth="1"/>
-    <col min="8" max="8" width="3.75" customWidth="1"/>
-    <col min="10" max="10" width="24.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" ht="14.25" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" ht="14.25" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:10">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" ht="14.25" spans="2:10">
-      <c r="B9" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" ht="14.25" spans="2:10">
-      <c r="B10" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" spans="2:10">
-      <c r="B11" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" ht="14.25" spans="2:10">
-      <c r="B12" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" ht="14.25" spans="2:10">
-      <c r="B13" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" ht="14.25" spans="2:10">
-      <c r="B14" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" ht="14.25" spans="2:10">
-      <c r="B15" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" ht="14.25" spans="2:10">
-      <c r="B16" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" ht="14.25" spans="2:10">
-      <c r="B17" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J54"/>
@@ -7987,7 +8306,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8001,7 +8320,7 @@
     </row>
     <row r="2" ht="14.25" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -8015,7 +8334,7 @@
     </row>
     <row r="3" ht="14.25" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -8029,7 +8348,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -8056,7 +8375,7 @@
     <row r="6" ht="14.25" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -8070,49 +8389,49 @@
     <row r="7" ht="14.25" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:10">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -8121,18 +8440,18 @@
     </row>
     <row r="9" ht="14.25" spans="2:10">
       <c r="B9" s="5" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="9"/>
@@ -8140,13 +8459,13 @@
     </row>
     <row r="10" ht="14.25" spans="2:10">
       <c r="B10" s="5" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
@@ -8157,13 +8476,13 @@
     </row>
     <row r="11" ht="14.25" spans="2:10">
       <c r="B11" s="5" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
@@ -8171,18 +8490,18 @@
       <c r="H11" s="7"/>
       <c r="I11" s="9"/>
       <c r="J11" s="5" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:10">
       <c r="B12" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
@@ -8193,20 +8512,20 @@
     </row>
     <row r="13" ht="14.25" spans="2:10">
       <c r="B13" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="9"/>
@@ -8214,20 +8533,20 @@
     </row>
     <row r="14" ht="14.25" spans="2:10">
       <c r="B14" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="9"/>
@@ -8235,7 +8554,7 @@
     </row>
     <row r="17" ht="14.25" spans="2:10">
       <c r="B17" s="2" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -8248,48 +8567,48 @@
     </row>
     <row r="18" ht="14.25" spans="2:10">
       <c r="B18" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="2:10">
       <c r="B19" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -8298,18 +8617,18 @@
     </row>
     <row r="20" ht="14.25" spans="2:10">
       <c r="B20" s="5" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="9"/>
@@ -8317,36 +8636,36 @@
     </row>
     <row r="21" ht="14.25" spans="2:10">
       <c r="B21" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="9"/>
       <c r="J21" s="5" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="2:10">
       <c r="B22" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
@@ -8357,20 +8676,20 @@
     </row>
     <row r="23" ht="14.25" spans="2:10">
       <c r="B23" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="9"/>
@@ -8378,20 +8697,20 @@
     </row>
     <row r="24" ht="14.25" spans="2:10">
       <c r="B24" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="9"/>
@@ -8399,7 +8718,7 @@
     </row>
     <row r="27" ht="14.25" spans="2:10">
       <c r="B27" s="2" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -8412,48 +8731,48 @@
     </row>
     <row r="28" ht="14.25" spans="2:10">
       <c r="B28" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="2:10">
       <c r="B29" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -8462,20 +8781,20 @@
     </row>
     <row r="30" ht="14.25" spans="2:10">
       <c r="B30" s="5" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="9"/>
@@ -8483,43 +8802,43 @@
     </row>
     <row r="31" ht="14.25" spans="2:10">
       <c r="B31" s="5" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="9"/>
       <c r="J31" s="5" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="2:10">
       <c r="B32" s="5" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="9"/>
@@ -8527,36 +8846,36 @@
     </row>
     <row r="33" ht="14.25" spans="2:10">
       <c r="B33" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="9"/>
       <c r="J33" s="5" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="2:10">
       <c r="B34" s="5" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="7"/>
@@ -8567,13 +8886,13 @@
     </row>
     <row r="35" ht="14.25" spans="2:10">
       <c r="B35" s="5" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="7"/>
@@ -8584,13 +8903,13 @@
     </row>
     <row r="36" ht="14.25" spans="2:10">
       <c r="B36" s="5" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
@@ -8601,13 +8920,13 @@
     </row>
     <row r="37" ht="14.25" spans="2:10">
       <c r="B37" s="5" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
@@ -8618,13 +8937,13 @@
     </row>
     <row r="38" ht="14.25" spans="2:10">
       <c r="B38" s="5" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="7"/>
@@ -8635,13 +8954,13 @@
     </row>
     <row r="39" ht="14.25" spans="2:10">
       <c r="B39" s="5" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
@@ -8652,13 +8971,13 @@
     </row>
     <row r="40" ht="14.25" spans="2:10">
       <c r="B40" s="5" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
@@ -8669,37 +8988,37 @@
     </row>
     <row r="41" ht="14.25" spans="2:10">
       <c r="B41" s="5" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="9"/>
       <c r="J41" s="5" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="2:10">
       <c r="B42" s="5" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
@@ -8709,13 +9028,13 @@
     </row>
     <row r="43" ht="14.25" spans="2:10">
       <c r="B43" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="7"/>
@@ -8726,20 +9045,20 @@
     </row>
     <row r="44" ht="14.25" spans="2:10">
       <c r="B44" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="9"/>
@@ -8747,20 +9066,20 @@
     </row>
     <row r="45" ht="14.25" spans="2:10">
       <c r="B45" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="9"/>
@@ -8768,7 +9087,7 @@
     </row>
     <row r="48" ht="14.25" spans="2:10">
       <c r="B48" s="2" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -8781,48 +9100,48 @@
     </row>
     <row r="49" ht="14.25" spans="2:10">
       <c r="B49" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" ht="14.25" spans="2:10">
       <c r="B50" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -8831,13 +9150,13 @@
     </row>
     <row r="51" ht="14.25" spans="2:10">
       <c r="B51" s="5" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
@@ -8848,13 +9167,13 @@
     </row>
     <row r="52" ht="14.25" spans="2:10">
       <c r="B52" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="7"/>
@@ -8865,20 +9184,20 @@
     </row>
     <row r="53" ht="14.25" spans="2:10">
       <c r="B53" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="9"/>
@@ -8886,20 +9205,20 @@
     </row>
     <row r="54" ht="14.25" spans="2:10">
       <c r="B54" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="9"/>

--- a/docs/db/数据库设计.xlsx
+++ b/docs/db/数据库设计.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="405">
   <si>
     <t>NO.</t>
   </si>
@@ -518,72 +518,72 @@
     <t>状态</t>
   </si>
   <si>
+    <t>备用(冻结账号等)</t>
+  </si>
+  <si>
+    <t>visitor_id</t>
+  </si>
+  <si>
+    <t>访问者ID</t>
+  </si>
+  <si>
+    <t>visited_id</t>
+  </si>
+  <si>
+    <t>被访问者ID</t>
+  </si>
+  <si>
+    <t>用户登录表（t_user_auth）</t>
+  </si>
+  <si>
+    <t>登录状态表（t_login_status）</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>登录类型</t>
+  </si>
+  <si>
+    <t>0: "phone", 1: "wechat", 2: "qq", 3: "weibo"</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>登录的用户名</t>
+  </si>
+  <si>
+    <t>credential</t>
+  </si>
+  <si>
+    <t>登录的密码</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>盐</t>
+  </si>
+  <si>
+    <t>密码加密使用</t>
+  </si>
+  <si>
+    <t>is_online</t>
+  </si>
+  <si>
+    <t>用户是否在线</t>
+  </si>
+  <si>
+    <t>online_status</t>
+  </si>
+  <si>
+    <t>在线状态</t>
+  </si>
+  <si>
     <t>VARCHAR(30)</t>
   </si>
   <si>
-    <t>备用(冻结账号等)</t>
-  </si>
-  <si>
-    <t>visitor_id</t>
-  </si>
-  <si>
-    <t>访问者ID</t>
-  </si>
-  <si>
-    <t>visited_id</t>
-  </si>
-  <si>
-    <t>被访问者ID</t>
-  </si>
-  <si>
-    <t>用户登录表（t_user_auth）</t>
-  </si>
-  <si>
-    <t>登录状态表（t_login_status）</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>登录类型</t>
-  </si>
-  <si>
-    <t>0: "phone", 1: "wechat", 2: "qq", 3: "weibo"</t>
-  </si>
-  <si>
-    <t>identifier</t>
-  </si>
-  <si>
-    <t>登录的用户名</t>
-  </si>
-  <si>
-    <t>credential</t>
-  </si>
-  <si>
-    <t>登录的密码</t>
-  </si>
-  <si>
-    <t>salt</t>
-  </si>
-  <si>
-    <t>盐</t>
-  </si>
-  <si>
-    <t>密码加密使用</t>
-  </si>
-  <si>
-    <t>is_online</t>
-  </si>
-  <si>
-    <t>用户是否在线</t>
-  </si>
-  <si>
-    <t>online_status</t>
-  </si>
-  <si>
-    <t>在线状态</t>
-  </si>
-  <si>
     <t>粉丝表（t_follower）</t>
   </si>
   <si>
@@ -614,7 +614,10 @@
     <t>平台</t>
   </si>
   <si>
-    <t>0: "Andorid", 1: "IOS"</t>
+    <t>CHAR(7)</t>
+  </si>
+  <si>
+    <t>"andorid","ios"</t>
   </si>
   <si>
     <t>brand</t>
@@ -1237,9 +1240,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="25">
@@ -1282,16 +1285,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1304,16 +1335,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1328,46 +1368,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1388,15 +1391,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1412,7 +1415,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1420,7 +1423,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1477,7 +1480,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1489,7 +1516,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1501,7 +1534,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,31 +1552,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1549,19 +1582,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1579,7 +1606,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1591,25 +1624,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1627,19 +1642,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1705,13 +1708,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1750,16 +1757,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1768,22 +1766,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1802,6 +1785,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1810,49 +1813,49 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1861,98 +1864,98 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1990,9 +1993,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2461,22 +2461,22 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2484,30 +2484,30 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="29"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="17" customHeight="1" spans="1:6">
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="9"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="9"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -2516,8 +2516,8 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
@@ -2526,8 +2526,8 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
@@ -2536,8 +2536,8 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
@@ -2546,8 +2546,8 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:6">
@@ -2556,8 +2556,8 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="9"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:6">
@@ -2566,8 +2566,8 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="9"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:6">
@@ -2576,8 +2576,8 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="9"/>
     </row>
   </sheetData>
@@ -2608,440 +2608,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="21"/>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="21"/>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="21"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="21"/>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="21"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="21"/>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="21"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="21"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="21"/>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="21"/>
-      <c r="B14" s="20" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="21"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="21"/>
-      <c r="B16" s="20" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="21"/>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="21"/>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="21"/>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="21"/>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="21"/>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="24"/>
-      <c r="B22" s="23" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="25"/>
-      <c r="B24" s="20" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="25"/>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="25"/>
-      <c r="B26" s="20" t="s">
+      <c r="A26" s="24"/>
+      <c r="B26" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="19" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="25"/>
-      <c r="B27" s="20" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="25"/>
-      <c r="B28" s="20" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="19" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="19" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="21"/>
-      <c r="B30" s="20" t="s">
+      <c r="A30" s="20"/>
+      <c r="B30" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="19" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="21"/>
-      <c r="B31" s="20" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="19" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="21"/>
-      <c r="B32" s="20" t="s">
+      <c r="A32" s="20"/>
+      <c r="B32" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="21"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="21"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="24"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3060,8 +3060,8 @@
   <sheetPr/>
   <dimension ref="A1:T150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3778,15 +3778,17 @@
         <v>165</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E27" s="6"/>
+        <v>142</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="9"/>
       <c r="J27" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>90</v>
@@ -3873,10 +3875,10 @@
       <c r="I29" s="9"/>
       <c r="J29" s="5"/>
       <c r="L29" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="M29" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>101</v>
@@ -3915,10 +3917,10 @@
       <c r="I30" s="9"/>
       <c r="J30" s="5"/>
       <c r="L30" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M30" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>101</v>
@@ -3976,7 +3978,7 @@
     </row>
     <row r="33" spans="2:20">
       <c r="B33" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L33" s="5" t="s">
         <v>126</v>
@@ -4069,16 +4071,16 @@
       <c r="I36" s="9"/>
       <c r="J36" s="5"/>
       <c r="L36" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S36" s="8"/>
     </row>
     <row r="37" spans="2:20">
       <c r="B37" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>142</v>
@@ -4093,7 +4095,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="9"/>
       <c r="J37" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>90</v>
@@ -4125,10 +4127,10 @@
     </row>
     <row r="38" spans="2:20">
       <c r="B38" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>113</v>
@@ -4163,10 +4165,10 @@
     </row>
     <row r="39" spans="2:20">
       <c r="B39" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>113</v>
@@ -4201,10 +4203,10 @@
     </row>
     <row r="40" spans="2:20">
       <c r="B40" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>116</v>
@@ -4215,13 +4217,13 @@
       <c r="H40" s="7"/>
       <c r="I40" s="9"/>
       <c r="J40" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="L40" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="L40" s="5" t="s">
+      <c r="M40" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="N40" s="5" t="s">
         <v>119</v>
@@ -4250,13 +4252,13 @@
       <c r="I41" s="9"/>
       <c r="J41" s="5"/>
       <c r="L41" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="M41" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="M41" s="5" t="s">
+      <c r="N41" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="N41" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="7"/>
@@ -4593,17 +4595,15 @@
         <v>197</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="O52" s="6" t="s">
-        <v>102</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="O52" s="6"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
       <c r="S52" s="9"/>
       <c r="T52" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="2:20">
@@ -4627,10 +4627,10 @@
       <c r="I53" s="9"/>
       <c r="J53" s="5"/>
       <c r="L53" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N53" s="5" t="s">
         <v>116</v>
@@ -4644,10 +4644,10 @@
     </row>
     <row r="54" spans="12:20">
       <c r="L54" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N54" s="5" t="s">
         <v>116</v>
@@ -4661,10 +4661,10 @@
     </row>
     <row r="55" spans="12:20">
       <c r="L55" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N55" s="5" t="s">
         <v>139</v>
@@ -4678,16 +4678,16 @@
     </row>
     <row r="56" spans="2:20">
       <c r="B56" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N56" s="5" t="s">
         <v>139</v>
@@ -4728,10 +4728,10 @@
         <v>98</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N57" s="5" t="s">
         <v>113</v>
@@ -4764,10 +4764,10 @@
       <c r="I58" s="9"/>
       <c r="J58" s="5"/>
       <c r="L58" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N58" s="5" t="s">
         <v>113</v>
@@ -4781,10 +4781,10 @@
     </row>
     <row r="59" spans="2:20">
       <c r="B59" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>101</v>
@@ -4802,10 +4802,10 @@
         <v>148</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N59" s="5" t="s">
         <v>101</v>
@@ -4821,10 +4821,10 @@
     </row>
     <row r="60" spans="2:20">
       <c r="B60" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>101</v>
@@ -4857,10 +4857,10 @@
     </row>
     <row r="61" spans="2:20">
       <c r="B61" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>113</v>
@@ -4895,13 +4895,13 @@
     </row>
     <row r="62" spans="2:20">
       <c r="B62" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="7"/>
@@ -4965,10 +4965,10 @@
     </row>
     <row r="65" spans="2:19">
       <c r="B65" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>119</v>
@@ -4980,16 +4980,16 @@
       <c r="I65" s="9"/>
       <c r="J65" s="5"/>
       <c r="L65" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="S65" s="8"/>
     </row>
     <row r="66" spans="2:20">
       <c r="B66" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>119</v>
@@ -5030,10 +5030,10 @@
     </row>
     <row r="67" spans="2:20">
       <c r="B67" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>119</v>
@@ -5066,10 +5066,10 @@
     </row>
     <row r="68" spans="2:20">
       <c r="B68" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>119</v>
@@ -5081,10 +5081,10 @@
       <c r="I68" s="9"/>
       <c r="J68" s="5"/>
       <c r="L68" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N68" s="5" t="s">
         <v>101</v>
@@ -5117,10 +5117,10 @@
       <c r="I69" s="9"/>
       <c r="J69" s="5"/>
       <c r="L69" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N69" s="5" t="s">
         <v>101</v>
@@ -5157,10 +5157,10 @@
       <c r="I70" s="9"/>
       <c r="J70" s="5"/>
       <c r="L70" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N70" s="5" t="s">
         <v>101</v>
@@ -5173,7 +5173,7 @@
       <c r="R70" s="7"/>
       <c r="S70" s="9"/>
       <c r="T70" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="2:20">
@@ -5197,10 +5197,10 @@
       <c r="I71" s="9"/>
       <c r="J71" s="5"/>
       <c r="L71" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N71" s="5" t="s">
         <v>142</v>
@@ -5215,7 +5215,7 @@
       <c r="R71" s="7"/>
       <c r="S71" s="9"/>
       <c r="T71" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="12:20">
@@ -5258,10 +5258,10 @@
     </row>
     <row r="74" spans="2:20">
       <c r="B74" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L74" s="5" t="s">
         <v>126</v>
@@ -5354,16 +5354,16 @@
       <c r="I77" s="9"/>
       <c r="J77" s="5"/>
       <c r="L77" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="S77" s="8"/>
     </row>
     <row r="78" spans="2:20">
       <c r="B78" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>101</v>
@@ -5408,10 +5408,10 @@
     </row>
     <row r="79" spans="2:20">
       <c r="B79" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>119</v>
@@ -5503,10 +5503,10 @@
       <c r="I81" s="9"/>
       <c r="J81" s="5"/>
       <c r="L81" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M81" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N81" s="5" t="s">
         <v>119</v>
@@ -5515,19 +5515,19 @@
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
-      <c r="S81" s="15" t="s">
-        <v>251</v>
+      <c r="S81" s="14" t="s">
+        <v>252</v>
       </c>
       <c r="T81" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="82" spans="12:20">
       <c r="L82" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N82" s="5" t="s">
         <v>119</v>
@@ -5536,15 +5536,15 @@
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
-      <c r="S82" s="15"/>
+      <c r="S82" s="14"/>
       <c r="T82" s="5"/>
     </row>
     <row r="83" spans="12:20">
       <c r="L83" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M83" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N83" s="5" t="s">
         <v>119</v>
@@ -5553,18 +5553,18 @@
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
-      <c r="S83" s="15"/>
+      <c r="S83" s="14"/>
       <c r="T83" s="5"/>
     </row>
     <row r="84" spans="2:20">
       <c r="B84" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M84" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N84" s="5" t="s">
         <v>119</v>
@@ -5573,8 +5573,8 @@
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
-      <c r="S84" s="15" t="s">
-        <v>251</v>
+      <c r="S84" s="14" t="s">
+        <v>252</v>
       </c>
       <c r="T84" s="5"/>
     </row>
@@ -5607,10 +5607,10 @@
         <v>98</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M85" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N85" s="5" t="s">
         <v>119</v>
@@ -5619,7 +5619,7 @@
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
-      <c r="S85" s="15"/>
+      <c r="S85" s="14"/>
     </row>
     <row r="86" spans="2:20">
       <c r="B86" s="5" t="s">
@@ -5642,10 +5642,10 @@
       <c r="I86" s="9"/>
       <c r="J86" s="5"/>
       <c r="L86" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M86" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N86" s="5" t="s">
         <v>119</v>
@@ -5654,7 +5654,7 @@
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
-      <c r="S86" s="15"/>
+      <c r="S86" s="14"/>
       <c r="T86" s="5"/>
     </row>
     <row r="87" spans="2:20">
@@ -5678,10 +5678,10 @@
       <c r="I87" s="9"/>
       <c r="J87" s="5"/>
       <c r="L87" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M87" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N87" s="5" t="s">
         <v>119</v>
@@ -5690,15 +5690,15 @@
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
-      <c r="S87" s="15"/>
+      <c r="S87" s="14"/>
       <c r="T87" s="5"/>
     </row>
     <row r="88" spans="2:20">
       <c r="B88" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>101</v>
@@ -5716,10 +5716,10 @@
         <v>148</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M88" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N88" s="5" t="s">
         <v>119</v>
@@ -5728,20 +5728,20 @@
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
-      <c r="S88" s="15" t="s">
-        <v>251</v>
+      <c r="S88" s="14" t="s">
+        <v>252</v>
       </c>
       <c r="T88" s="5"/>
     </row>
     <row r="89" spans="2:20">
       <c r="B89" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="7"/>
@@ -5750,10 +5750,10 @@
       <c r="I89" s="9"/>
       <c r="J89" s="5"/>
       <c r="L89" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M89" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N89" s="5" t="s">
         <v>119</v>
@@ -5762,9 +5762,9 @@
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
-      <c r="S89" s="15"/>
-      <c r="T89" s="16" t="s">
-        <v>274</v>
+      <c r="S89" s="14"/>
+      <c r="T89" s="15" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="90" spans="2:20">
@@ -5784,10 +5784,10 @@
       <c r="I90" s="9"/>
       <c r="J90" s="5"/>
       <c r="L90" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M90" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N90" s="5" t="s">
         <v>119</v>
@@ -5796,9 +5796,9 @@
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
-      <c r="S90" s="15"/>
-      <c r="T90" s="16" t="s">
-        <v>274</v>
+      <c r="S90" s="14"/>
+      <c r="T90" s="15" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="91" spans="2:20">
@@ -5881,26 +5881,18 @@
       <c r="S92" s="9"/>
       <c r="T92" s="5"/>
     </row>
-    <row r="93" spans="12:20">
+    <row r="93" spans="12:12">
       <c r="L93" s="12"/>
-      <c r="M93" s="13"/>
-      <c r="N93" s="13"/>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
-      <c r="R93" s="1"/>
-      <c r="S93" s="1"/>
-      <c r="T93" s="13"/>
     </row>
     <row r="95" spans="12:19">
-      <c r="L95" s="14" t="s">
-        <v>277</v>
+      <c r="L95" s="13" t="s">
+        <v>278</v>
       </c>
       <c r="S95" s="8"/>
     </row>
     <row r="96" spans="2:20">
       <c r="B96" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L96" s="3" t="s">
         <v>90</v>
@@ -6023,7 +6015,7 @@
         <v>108</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>110</v>
@@ -6037,10 +6029,10 @@
       <c r="I99" s="9"/>
       <c r="J99" s="5"/>
       <c r="L99" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M99" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N99" s="5" t="s">
         <v>119</v>
@@ -6049,8 +6041,8 @@
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="15" t="s">
-        <v>251</v>
+      <c r="S99" s="14" t="s">
+        <v>252</v>
       </c>
       <c r="T99" s="5"/>
     </row>
@@ -6071,10 +6063,10 @@
       <c r="I100" s="9"/>
       <c r="J100" s="5"/>
       <c r="L100" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M100" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N100" s="5" t="s">
         <v>119</v>
@@ -6083,17 +6075,17 @@
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="15" t="s">
-        <v>251</v>
+      <c r="S100" s="14" t="s">
+        <v>252</v>
       </c>
       <c r="T100" s="5"/>
     </row>
     <row r="101" spans="2:20">
       <c r="B101" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>113</v>
@@ -6107,10 +6099,10 @@
       <c r="I101" s="9"/>
       <c r="J101" s="5"/>
       <c r="L101" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M101" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N101" s="5" t="s">
         <v>119</v>
@@ -6119,8 +6111,8 @@
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="15" t="s">
-        <v>251</v>
+      <c r="S101" s="14" t="s">
+        <v>252</v>
       </c>
       <c r="T101" s="5"/>
     </row>
@@ -6147,10 +6139,10 @@
         <v>143</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M102" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N102" s="5" t="s">
         <v>119</v>
@@ -6159,20 +6151,20 @@
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
-      <c r="S102" s="15" t="s">
-        <v>251</v>
+      <c r="S102" s="14" t="s">
+        <v>252</v>
       </c>
       <c r="T102" s="5"/>
     </row>
     <row r="103" spans="2:20">
       <c r="B103" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="7"/>
@@ -6189,18 +6181,18 @@
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
-      <c r="S103" s="15"/>
+      <c r="S103" s="14"/>
       <c r="T103" s="5"/>
     </row>
     <row r="104" spans="2:20">
       <c r="B104" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="7"/>
@@ -6217,15 +6209,15 @@
       <c r="P104" s="7"/>
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
-      <c r="S104" s="15"/>
+      <c r="S104" s="14"/>
       <c r="T104" s="5"/>
     </row>
     <row r="105" spans="2:20">
       <c r="B105" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>116</v>
@@ -6236,7 +6228,7 @@
       <c r="H105" s="7"/>
       <c r="I105" s="9"/>
       <c r="J105" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
@@ -6245,7 +6237,7 @@
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
-      <c r="S105" s="15"/>
+      <c r="S105" s="14"/>
       <c r="T105" s="5"/>
     </row>
     <row r="106" spans="2:20">
@@ -6271,7 +6263,7 @@
       <c r="P106" s="7"/>
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
-      <c r="S106" s="15"/>
+      <c r="S106" s="14"/>
       <c r="T106" s="5"/>
     </row>
     <row r="107" spans="2:20">
@@ -6301,7 +6293,7 @@
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
-      <c r="S107" s="15"/>
+      <c r="S107" s="14"/>
       <c r="T107" s="5"/>
     </row>
     <row r="108" spans="2:10">
@@ -6327,7 +6319,7 @@
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="112" spans="2:10">
@@ -6382,13 +6374,13 @@
     </row>
     <row r="114" spans="2:10">
       <c r="B114" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="7"/>
@@ -6401,10 +6393,10 @@
     </row>
     <row r="115" spans="2:10">
       <c r="B115" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>116</v>
@@ -6420,10 +6412,10 @@
     </row>
     <row r="116" spans="2:10">
       <c r="B116" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>113</v>
@@ -6496,7 +6488,7 @@
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="123" spans="2:10">
@@ -6551,13 +6543,13 @@
     </row>
     <row r="125" spans="2:10">
       <c r="B125" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="7"/>
@@ -6570,10 +6562,10 @@
     </row>
     <row r="126" spans="2:10">
       <c r="B126" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>116</v>
@@ -6589,10 +6581,10 @@
     </row>
     <row r="127" spans="2:10">
       <c r="B127" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>113</v>
@@ -6665,7 +6657,7 @@
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="134" spans="2:10">
@@ -6720,10 +6712,10 @@
     </row>
     <row r="136" spans="2:10">
       <c r="B136" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>101</v>
@@ -6741,10 +6733,10 @@
     </row>
     <row r="137" spans="2:10">
       <c r="B137" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>101</v>
@@ -6821,7 +6813,7 @@
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="144" spans="2:10">
@@ -6876,10 +6868,10 @@
     </row>
     <row r="146" spans="2:10">
       <c r="B146" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>101</v>
@@ -6897,10 +6889,10 @@
     </row>
     <row r="147" spans="2:10">
       <c r="B147" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>101</v>
@@ -6988,7 +6980,7 @@
   <sheetPr/>
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -7078,7 +7070,7 @@
     <row r="6" ht="14.25" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -7119,7 +7111,7 @@
         <v>98</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -7181,10 +7173,10 @@
     </row>
     <row r="9" ht="14.25" spans="2:20">
       <c r="B9" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>101</v>
@@ -7223,10 +7215,10 @@
     </row>
     <row r="10" ht="14.25" spans="2:20">
       <c r="B10" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>113</v>
@@ -7238,10 +7230,10 @@
       <c r="I10" s="9"/>
       <c r="J10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>101</v>
@@ -7259,10 +7251,10 @@
     </row>
     <row r="11" ht="14.25" spans="2:20">
       <c r="B11" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>142</v>
@@ -7277,13 +7269,13 @@
       <c r="H11" s="7"/>
       <c r="I11" s="9"/>
       <c r="J11" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>101</v>
@@ -7303,13 +7295,13 @@
     </row>
     <row r="12" ht="14.25" spans="2:20">
       <c r="B12" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>102</v>
@@ -7322,10 +7314,10 @@
       </c>
       <c r="J12" s="5"/>
       <c r="L12" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>101</v>
@@ -7338,15 +7330,15 @@
       <c r="R12" s="7"/>
       <c r="S12" s="9"/>
       <c r="T12" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="2:20">
       <c r="B13" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>119</v>
@@ -7358,13 +7350,13 @@
       <c r="I13" s="9"/>
       <c r="J13" s="5"/>
       <c r="L13" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O13" s="6"/>
       <c r="P13" s="7"/>
@@ -7375,10 +7367,10 @@
     </row>
     <row r="14" ht="14.25" spans="2:20">
       <c r="B14" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>119</v>
@@ -7407,10 +7399,10 @@
     </row>
     <row r="15" ht="14.25" spans="2:20">
       <c r="B15" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>119</v>
@@ -7443,10 +7435,10 @@
     </row>
     <row r="16" ht="14.25" spans="2:20">
       <c r="B16" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>101</v>
@@ -7483,10 +7475,10 @@
     </row>
     <row r="17" ht="14.25" spans="2:10">
       <c r="B17" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>101</v>
@@ -7542,7 +7534,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="5"/>
       <c r="L19" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -7605,7 +7597,7 @@
     </row>
     <row r="22" ht="14.25" spans="2:20">
       <c r="B22" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -7616,10 +7608,10 @@
       <c r="I22" s="8"/>
       <c r="J22" s="1"/>
       <c r="L22" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>101</v>
@@ -7662,10 +7654,10 @@
         <v>98</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>101</v>
@@ -7703,7 +7695,7 @@
         <v>106</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>101</v>
@@ -7721,10 +7713,10 @@
     </row>
     <row r="25" ht="14.25" spans="2:20">
       <c r="B25" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>101</v>
@@ -7740,10 +7732,10 @@
       <c r="I25" s="9"/>
       <c r="J25" s="5"/>
       <c r="L25" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>119</v>
@@ -7797,10 +7789,10 @@
     </row>
     <row r="27" ht="14.25" spans="2:20">
       <c r="B27" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>119</v>
@@ -7833,10 +7825,10 @@
     </row>
     <row r="28" ht="14.25" spans="2:10">
       <c r="B28" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>101</v>
@@ -7854,10 +7846,10 @@
     </row>
     <row r="29" ht="14.25" spans="2:10">
       <c r="B29" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>101</v>
@@ -7915,7 +7907,7 @@
     </row>
     <row r="34" ht="14.25" spans="2:10">
       <c r="B34" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -7999,10 +7991,10 @@
     </row>
     <row r="38" ht="14.25" spans="2:10">
       <c r="B38" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>101</v>
@@ -8018,13 +8010,13 @@
     </row>
     <row r="39" ht="14.25" spans="2:10">
       <c r="B39" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
@@ -8035,10 +8027,10 @@
     </row>
     <row r="40" ht="14.25" spans="2:10">
       <c r="B40" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>142</v>
@@ -8053,7 +8045,7 @@
       <c r="H40" s="7"/>
       <c r="I40" s="9"/>
       <c r="J40" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="2:10">
@@ -8117,7 +8109,7 @@
     </row>
     <row r="46" ht="14.25" spans="2:10">
       <c r="B46" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -8180,10 +8172,10 @@
     </row>
     <row r="49" ht="14.25" spans="2:10">
       <c r="B49" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>101</v>
@@ -8220,10 +8212,10 @@
     </row>
     <row r="51" ht="14.25" spans="2:10">
       <c r="B51" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>113</v>
@@ -8375,7 +8367,7 @@
     <row r="6" ht="14.25" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -8440,10 +8432,10 @@
     </row>
     <row r="9" ht="14.25" spans="2:10">
       <c r="B9" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>139</v>
@@ -8459,10 +8451,10 @@
     </row>
     <row r="10" ht="14.25" spans="2:10">
       <c r="B10" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>113</v>
@@ -8476,10 +8468,10 @@
     </row>
     <row r="11" ht="14.25" spans="2:10">
       <c r="B11" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>139</v>
@@ -8490,7 +8482,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="9"/>
       <c r="J11" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:10">
@@ -8554,7 +8546,7 @@
     </row>
     <row r="17" ht="14.25" spans="2:10">
       <c r="B17" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -8617,10 +8609,10 @@
     </row>
     <row r="20" ht="14.25" spans="2:10">
       <c r="B20" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>113</v>
@@ -8636,7 +8628,7 @@
     </row>
     <row r="21" ht="14.25" spans="2:10">
       <c r="B21" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>92</v>
@@ -8654,7 +8646,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="9"/>
       <c r="J21" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="2:10">
@@ -8718,7 +8710,7 @@
     </row>
     <row r="27" ht="14.25" spans="2:10">
       <c r="B27" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -8781,10 +8773,10 @@
     </row>
     <row r="30" ht="14.25" spans="2:10">
       <c r="B30" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>101</v>
@@ -8802,10 +8794,10 @@
     </row>
     <row r="31" ht="14.25" spans="2:10">
       <c r="B31" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>101</v>
@@ -8820,15 +8812,15 @@
       <c r="H31" s="7"/>
       <c r="I31" s="9"/>
       <c r="J31" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="2:10">
       <c r="B32" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>101</v>
@@ -8846,10 +8838,10 @@
     </row>
     <row r="33" ht="14.25" spans="2:10">
       <c r="B33" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>142</v>
@@ -8864,15 +8856,15 @@
       <c r="H33" s="7"/>
       <c r="I33" s="9"/>
       <c r="J33" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="2:10">
       <c r="B34" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>113</v>
@@ -8886,10 +8878,10 @@
     </row>
     <row r="35" ht="14.25" spans="2:10">
       <c r="B35" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>113</v>
@@ -8903,10 +8895,10 @@
     </row>
     <row r="36" ht="14.25" spans="2:10">
       <c r="B36" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>113</v>
@@ -8920,10 +8912,10 @@
     </row>
     <row r="37" ht="14.25" spans="2:10">
       <c r="B37" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>113</v>
@@ -8937,10 +8929,10 @@
     </row>
     <row r="38" ht="14.25" spans="2:10">
       <c r="B38" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>113</v>
@@ -8954,13 +8946,13 @@
     </row>
     <row r="39" ht="14.25" spans="2:10">
       <c r="B39" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
@@ -8971,10 +8963,10 @@
     </row>
     <row r="40" ht="14.25" spans="2:10">
       <c r="B40" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>119</v>
@@ -8988,10 +8980,10 @@
     </row>
     <row r="41" ht="14.25" spans="2:10">
       <c r="B41" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>101</v>
@@ -9004,15 +8996,15 @@
       <c r="H41" s="7"/>
       <c r="I41" s="9"/>
       <c r="J41" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="2:10">
       <c r="B42" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>101</v>
@@ -9087,7 +9079,7 @@
     </row>
     <row r="48" ht="14.25" spans="2:10">
       <c r="B48" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -9150,10 +9142,10 @@
     </row>
     <row r="51" ht="14.25" spans="2:10">
       <c r="B51" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>113</v>

--- a/docs/db/数据库设计.xlsx
+++ b/docs/db/数据库设计.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="404">
   <si>
     <t>NO.</t>
   </si>
@@ -545,16 +545,16 @@
     <t>登录类型</t>
   </si>
   <si>
-    <t>0: "phone", 1: "wechat", 2: "qq", 3: "weibo"</t>
-  </si>
-  <si>
-    <t>identifier</t>
+    <t>0: "phone", 1: "account",2: "qq", 3: "wechat", 4: "weibo"</t>
+  </si>
+  <si>
+    <t>username</t>
   </si>
   <si>
     <t>登录的用户名</t>
   </si>
   <si>
-    <t>credential</t>
+    <t>password</t>
   </si>
   <si>
     <t>登录的密码</t>
@@ -873,9 +873,6 @@
   </si>
   <si>
     <t>是否开启评论通知</t>
-  </si>
-  <si>
-    <t>password</t>
   </si>
   <si>
     <t>密码</t>
@@ -1241,8 +1238,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="25">
@@ -1285,6 +1282,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1292,16 +1290,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1321,6 +1319,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -1329,7 +1335,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1344,16 +1350,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1391,14 +1396,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1408,13 +1405,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1423,7 +1413,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1480,31 +1477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1522,7 +1495,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1540,7 +1531,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1552,37 +1609,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1594,55 +1627,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1708,16 +1705,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1734,6 +1742,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1757,30 +1774,21 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1794,17 +1802,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1813,10 +1810,10 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1825,10 +1822,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1837,22 +1834,19 @@
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1864,94 +1858,97 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3061,7 +3058,7 @@
   <dimension ref="A1:T150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6082,10 +6079,10 @@
     </row>
     <row r="101" spans="2:20">
       <c r="B101" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>286</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>113</v>
@@ -6099,10 +6096,10 @@
       <c r="I101" s="9"/>
       <c r="J101" s="5"/>
       <c r="L101" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="M101" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="M101" s="5" t="s">
-        <v>288</v>
       </c>
       <c r="N101" s="5" t="s">
         <v>119</v>
@@ -6139,10 +6136,10 @@
         <v>143</v>
       </c>
       <c r="L102" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="M102" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="M102" s="5" t="s">
-        <v>290</v>
       </c>
       <c r="N102" s="5" t="s">
         <v>119</v>
@@ -6158,13 +6155,13 @@
     </row>
     <row r="103" spans="2:20">
       <c r="B103" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="D103" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>293</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="7"/>
@@ -6186,13 +6183,13 @@
     </row>
     <row r="104" spans="2:20">
       <c r="B104" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="D104" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>296</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="7"/>
@@ -6319,7 +6316,7 @@
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="112" spans="2:10">
@@ -6374,13 +6371,13 @@
     </row>
     <row r="114" spans="2:10">
       <c r="B114" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="D114" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="7"/>
@@ -6393,10 +6390,10 @@
     </row>
     <row r="115" spans="2:10">
       <c r="B115" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C115" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>116</v>
@@ -6415,7 +6412,7 @@
         <v>222</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>113</v>
@@ -6488,7 +6485,7 @@
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="123" spans="2:10">
@@ -6543,13 +6540,13 @@
     </row>
     <row r="125" spans="2:10">
       <c r="B125" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="7"/>
@@ -6562,10 +6559,10 @@
     </row>
     <row r="126" spans="2:10">
       <c r="B126" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>116</v>
@@ -6584,7 +6581,7 @@
         <v>222</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>113</v>
@@ -6657,7 +6654,7 @@
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="134" spans="2:10">
@@ -6712,10 +6709,10 @@
     </row>
     <row r="136" spans="2:10">
       <c r="B136" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C136" s="5" t="s">
         <v>309</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>310</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>101</v>
@@ -6733,10 +6730,10 @@
     </row>
     <row r="137" spans="2:10">
       <c r="B137" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C137" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>312</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>101</v>
@@ -6813,7 +6810,7 @@
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="144" spans="2:10">
@@ -6868,10 +6865,10 @@
     </row>
     <row r="146" spans="2:10">
       <c r="B146" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C146" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>312</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>101</v>
@@ -6889,10 +6886,10 @@
     </row>
     <row r="147" spans="2:10">
       <c r="B147" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>314</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>315</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>101</v>
@@ -7070,7 +7067,7 @@
     <row r="6" ht="14.25" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -7111,7 +7108,7 @@
         <v>98</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -7173,10 +7170,10 @@
     </row>
     <row r="9" ht="14.25" spans="2:20">
       <c r="B9" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>318</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>319</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>101</v>
@@ -7218,7 +7215,7 @@
         <v>220</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>113</v>
@@ -7230,10 +7227,10 @@
       <c r="I10" s="9"/>
       <c r="J10" s="5"/>
       <c r="L10" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>321</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>322</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>101</v>
@@ -7254,7 +7251,7 @@
         <v>173</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>142</v>
@@ -7269,13 +7266,13 @@
       <c r="H11" s="7"/>
       <c r="I11" s="9"/>
       <c r="J11" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="M11" s="5" t="s">
         <v>325</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>326</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>101</v>
@@ -7295,13 +7292,13 @@
     </row>
     <row r="12" ht="14.25" spans="2:20">
       <c r="B12" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>328</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>329</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>102</v>
@@ -7314,10 +7311,10 @@
       </c>
       <c r="J12" s="5"/>
       <c r="L12" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="M12" s="5" t="s">
         <v>330</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>331</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>101</v>
@@ -7330,15 +7327,15 @@
       <c r="R12" s="7"/>
       <c r="S12" s="9"/>
       <c r="T12" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="2:20">
       <c r="B13" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>334</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>119</v>
@@ -7350,10 +7347,10 @@
       <c r="I13" s="9"/>
       <c r="J13" s="5"/>
       <c r="L13" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="M13" s="5" t="s">
         <v>335</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>336</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>224</v>
@@ -7399,10 +7396,10 @@
     </row>
     <row r="15" ht="14.25" spans="2:20">
       <c r="B15" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>337</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>338</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>119</v>
@@ -7435,10 +7432,10 @@
     </row>
     <row r="16" ht="14.25" spans="2:20">
       <c r="B16" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>340</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>101</v>
@@ -7475,10 +7472,10 @@
     </row>
     <row r="17" ht="14.25" spans="2:10">
       <c r="B17" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>342</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>101</v>
@@ -7534,7 +7531,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="5"/>
       <c r="L19" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -7597,7 +7594,7 @@
     </row>
     <row r="22" ht="14.25" spans="2:20">
       <c r="B22" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -7608,10 +7605,10 @@
       <c r="I22" s="8"/>
       <c r="J22" s="1"/>
       <c r="L22" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="M22" s="5" t="s">
         <v>321</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>322</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>101</v>
@@ -7654,10 +7651,10 @@
         <v>98</v>
       </c>
       <c r="L23" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="M23" s="5" t="s">
         <v>345</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>346</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>101</v>
@@ -7695,7 +7692,7 @@
         <v>106</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>101</v>
@@ -7713,10 +7710,10 @@
     </row>
     <row r="25" ht="14.25" spans="2:20">
       <c r="B25" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>348</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>349</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>101</v>
@@ -7735,7 +7732,7 @@
         <v>281</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>119</v>
@@ -7789,10 +7786,10 @@
     </row>
     <row r="27" ht="14.25" spans="2:20">
       <c r="B27" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>351</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>352</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>119</v>
@@ -7825,10 +7822,10 @@
     </row>
     <row r="28" ht="14.25" spans="2:10">
       <c r="B28" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>353</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>354</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>101</v>
@@ -7846,10 +7843,10 @@
     </row>
     <row r="29" ht="14.25" spans="2:10">
       <c r="B29" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>356</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>101</v>
@@ -7907,7 +7904,7 @@
     </row>
     <row r="34" ht="14.25" spans="2:10">
       <c r="B34" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -8010,10 +8007,10 @@
     </row>
     <row r="39" ht="14.25" spans="2:10">
       <c r="B39" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>224</v>
@@ -8030,7 +8027,7 @@
         <v>173</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>142</v>
@@ -8045,7 +8042,7 @@
       <c r="H40" s="7"/>
       <c r="I40" s="9"/>
       <c r="J40" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="2:10">
@@ -8109,7 +8106,7 @@
     </row>
     <row r="46" ht="14.25" spans="2:10">
       <c r="B46" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -8172,10 +8169,10 @@
     </row>
     <row r="49" ht="14.25" spans="2:10">
       <c r="B49" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>321</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>322</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>101</v>
@@ -8212,10 +8209,10 @@
     </row>
     <row r="51" ht="14.25" spans="2:10">
       <c r="B51" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>362</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>363</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>113</v>
@@ -8367,7 +8364,7 @@
     <row r="6" ht="14.25" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -8432,10 +8429,10 @@
     </row>
     <row r="9" ht="14.25" spans="2:10">
       <c r="B9" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>139</v>
@@ -8451,10 +8448,10 @@
     </row>
     <row r="10" ht="14.25" spans="2:10">
       <c r="B10" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>366</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>367</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>113</v>
@@ -8468,10 +8465,10 @@
     </row>
     <row r="11" ht="14.25" spans="2:10">
       <c r="B11" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>368</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>369</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>139</v>
@@ -8482,7 +8479,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="9"/>
       <c r="J11" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:10">
@@ -8546,7 +8543,7 @@
     </row>
     <row r="17" ht="14.25" spans="2:10">
       <c r="B17" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -8609,10 +8606,10 @@
     </row>
     <row r="20" ht="14.25" spans="2:10">
       <c r="B20" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>372</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>373</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>113</v>
@@ -8646,7 +8643,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="9"/>
       <c r="J21" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="2:10">
@@ -8710,7 +8707,7 @@
     </row>
     <row r="27" ht="14.25" spans="2:10">
       <c r="B27" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -8773,10 +8770,10 @@
     </row>
     <row r="30" ht="14.25" spans="2:10">
       <c r="B30" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>376</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>377</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>101</v>
@@ -8794,10 +8791,10 @@
     </row>
     <row r="31" ht="14.25" spans="2:10">
       <c r="B31" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>378</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>379</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>101</v>
@@ -8812,15 +8809,15 @@
       <c r="H31" s="7"/>
       <c r="I31" s="9"/>
       <c r="J31" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="2:10">
       <c r="B32" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>382</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>101</v>
@@ -8841,7 +8838,7 @@
         <v>173</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>142</v>
@@ -8856,15 +8853,15 @@
       <c r="H33" s="7"/>
       <c r="I33" s="9"/>
       <c r="J33" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="2:10">
       <c r="B34" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>385</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>386</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>113</v>
@@ -8878,10 +8875,10 @@
     </row>
     <row r="35" ht="14.25" spans="2:10">
       <c r="B35" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>387</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>388</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>113</v>
@@ -8895,10 +8892,10 @@
     </row>
     <row r="36" ht="14.25" spans="2:10">
       <c r="B36" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>390</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>113</v>
@@ -8912,10 +8909,10 @@
     </row>
     <row r="37" ht="14.25" spans="2:10">
       <c r="B37" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>391</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>392</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>113</v>
@@ -8929,10 +8926,10 @@
     </row>
     <row r="38" ht="14.25" spans="2:10">
       <c r="B38" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>394</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>113</v>
@@ -8949,7 +8946,7 @@
         <v>222</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>224</v>
@@ -8963,10 +8960,10 @@
     </row>
     <row r="40" ht="14.25" spans="2:10">
       <c r="B40" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>396</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>397</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>119</v>
@@ -8980,10 +8977,10 @@
     </row>
     <row r="41" ht="14.25" spans="2:10">
       <c r="B41" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>398</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>399</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>101</v>
@@ -8996,15 +8993,15 @@
       <c r="H41" s="7"/>
       <c r="I41" s="9"/>
       <c r="J41" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="2:10">
       <c r="B42" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>401</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>402</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>101</v>
@@ -9079,7 +9076,7 @@
     </row>
     <row r="48" ht="14.25" spans="2:10">
       <c r="B48" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -9142,10 +9139,10 @@
     </row>
     <row r="51" ht="14.25" spans="2:10">
       <c r="B51" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>113</v>

--- a/docs/db/数据库设计.xlsx
+++ b/docs/db/数据库设计.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="404">
   <si>
     <t>NO.</t>
   </si>
@@ -1237,10 +1237,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1282,22 +1282,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1306,7 +1290,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1321,21 +1335,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1343,22 +1343,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1396,6 +1381,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1405,7 +1398,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1413,14 +1406,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1477,7 +1477,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1489,13 +1501,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1507,43 +1537,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1561,13 +1567,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1585,61 +1627,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1707,26 +1707,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1746,11 +1729,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1774,21 +1763,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1796,9 +1794,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1807,13 +1807,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1822,31 +1822,37 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1855,100 +1861,94 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3057,8 +3057,8 @@
   <sheetPr/>
   <dimension ref="A1:T150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3328,9 +3328,7 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
-        <v>102</v>
-      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="9"/>
       <c r="J12" s="5"/>
@@ -4172,9 +4170,7 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="7" t="s">
-        <v>102</v>
-      </c>
+      <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="9"/>
       <c r="J39" s="5"/>

--- a/docs/db/数据库设计.xlsx
+++ b/docs/db/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="881" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="881" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="变更记录" sheetId="6" r:id="rId1"/>
@@ -1237,9 +1237,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -1290,7 +1290,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1306,30 +1321,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1341,40 +1335,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1388,17 +1358,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1413,14 +1382,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1477,7 +1477,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1489,7 +1525,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1501,61 +1567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1567,61 +1579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1639,7 +1597,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1708,8 +1708,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1725,6 +1725,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1745,39 +1789,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1791,125 +1802,114 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1918,37 +1918,37 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3057,7 +3057,7 @@
   <sheetPr/>
   <dimension ref="A1:T150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
@@ -6973,8 +6973,8 @@
   <sheetPr/>
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/docs/db/数据库设计.xlsx
+++ b/docs/db/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="881" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="881" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="变更记录" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="403">
   <si>
     <t>NO.</t>
   </si>
@@ -200,7 +200,7 @@
     <t>通话房间表</t>
   </si>
   <si>
-    <t>t_calling_room</t>
+    <t>t_call_room</t>
   </si>
   <si>
     <t>用户创建的通话房间表</t>
@@ -209,7 +209,7 @@
     <t>通话房间-用户关联表</t>
   </si>
   <si>
-    <t>t_calling_user</t>
+    <t>t_call_user</t>
   </si>
   <si>
     <t>通话房间和用户的关联表</t>
@@ -329,7 +329,7 @@
     <t>●</t>
   </si>
   <si>
-    <t>userid</t>
+    <t>uid</t>
   </si>
   <si>
     <t>用户标识ID</t>
@@ -965,7 +965,7 @@
     <t>权限ID</t>
   </si>
   <si>
-    <t>通话房间表（t_calling_room）</t>
+    <t>通话房间表（t_call_room）</t>
   </si>
   <si>
     <t>评论表（t_comment）</t>
@@ -977,7 +977,10 @@
     <t>房主ID</t>
   </si>
   <si>
-    <t>房间标题</t>
+    <t>房间类型</t>
+  </si>
+  <si>
+    <t>0: "call", 1: "video"</t>
   </si>
   <si>
     <t>post_id</t>
@@ -986,10 +989,13 @@
     <t>投稿ID</t>
   </si>
   <si>
-    <t>房间类型</t>
-  </si>
-  <si>
-    <t>0: "call", 1: "video"</t>
+    <t>max_participants</t>
+  </si>
+  <si>
+    <t>最大参与者</t>
+  </si>
+  <si>
+    <t>INT</t>
   </si>
   <si>
     <t>commentator_id</t>
@@ -998,13 +1004,10 @@
     <t>评论人ID</t>
   </si>
   <si>
-    <t>max_participants</t>
-  </si>
-  <si>
-    <t>最大参与者</t>
-  </si>
-  <si>
-    <t>INT</t>
+    <t>is_calling</t>
+  </si>
+  <si>
+    <t>是否正在进行中</t>
   </si>
   <si>
     <t>parent_id</t>
@@ -1016,12 +1019,6 @@
     <t>为NULL时，评论投稿；不为NULL时，回复评论。</t>
   </si>
   <si>
-    <t>is_calling</t>
-  </si>
-  <si>
-    <t>是否正在进行中</t>
-  </si>
-  <si>
     <t>content</t>
   </si>
   <si>
@@ -1049,7 +1046,7 @@
     <t>点赞表（t_like）</t>
   </si>
   <si>
-    <t>通话房间-用户关联表（t_calling_user）</t>
+    <t>通话房间-用户关联表（t_call_user）</t>
   </si>
   <si>
     <t>comment_id</t>
@@ -1058,15 +1055,15 @@
     <t>评论ID</t>
   </si>
   <si>
+    <t>call_room_id</t>
+  </si>
+  <si>
+    <t>房间ID</t>
+  </si>
+  <si>
     <t>点赞人ID</t>
   </si>
   <si>
-    <t>calling_room_id</t>
-  </si>
-  <si>
-    <t>房间ID</t>
-  </si>
-  <si>
     <t>是否点赞</t>
   </si>
   <si>
@@ -1097,7 +1094,7 @@
     <t>投稿类型</t>
   </si>
   <si>
-    <t>0: "text", 1: "image", 2: "call", 3: "video"</t>
+    <t>0: "call", 1: "video", 2: "text", 3: "image"</t>
   </si>
   <si>
     <t>投稿图片表（t_post_img）</t>
@@ -1237,10 +1234,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1282,6 +1279,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1296,6 +1301,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1304,8 +1370,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1321,75 +1388,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1403,19 +1402,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1477,13 +1474,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1495,7 +1540,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,7 +1594,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1525,25 +1606,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1555,91 +1636,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1709,7 +1706,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1729,11 +1726,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1745,30 +1772,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1788,17 +1791,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1807,148 +1804,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2592,7 +2589,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3057,8 +3054,8 @@
   <sheetPr/>
   <dimension ref="A1:T150"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6971,10 +6968,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7208,25 +7205,31 @@
     </row>
     <row r="10" ht="14.25" spans="2:20">
       <c r="B10" s="5" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>319</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>142</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>320</v>
+      </c>
       <c r="L10" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>101</v>
@@ -7244,31 +7247,29 @@
     </row>
     <row r="11" ht="14.25" spans="2:20">
       <c r="B11" s="5" t="s">
-        <v>173</v>
+        <v>323</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>142</v>
+        <v>325</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>102</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
-        <v>102</v>
-      </c>
+      <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="5" t="s">
-        <v>323</v>
-      </c>
+      <c r="I11" s="9">
+        <v>8</v>
+      </c>
+      <c r="J11" s="5"/>
       <c r="L11" s="5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>101</v>
@@ -7288,29 +7289,25 @@
     </row>
     <row r="12" ht="14.25" spans="2:20">
       <c r="B12" s="5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>102</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E12" s="6"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="9">
-        <v>8</v>
-      </c>
+      <c r="I12" s="9"/>
       <c r="J12" s="5"/>
       <c r="L12" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>101</v>
@@ -7323,15 +7320,15 @@
       <c r="R12" s="7"/>
       <c r="S12" s="9"/>
       <c r="T12" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="2:20">
       <c r="B13" s="5" t="s">
-        <v>332</v>
+        <v>230</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>333</v>
+        <v>231</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>119</v>
@@ -7343,10 +7340,10 @@
       <c r="I13" s="9"/>
       <c r="J13" s="5"/>
       <c r="L13" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="M13" s="5" t="s">
         <v>334</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>335</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>224</v>
@@ -7360,10 +7357,10 @@
     </row>
     <row r="14" ht="14.25" spans="2:20">
       <c r="B14" s="5" t="s">
-        <v>230</v>
+        <v>335</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>231</v>
+        <v>336</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>119</v>
@@ -7392,17 +7389,21 @@
     </row>
     <row r="15" ht="14.25" spans="2:20">
       <c r="B15" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="6"/>
+        <v>101</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="9"/>
       <c r="J15" s="5"/>
@@ -7428,10 +7429,10 @@
     </row>
     <row r="16" ht="14.25" spans="2:20">
       <c r="B16" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>101</v>
@@ -7440,9 +7441,7 @@
         <v>102</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
-        <v>102</v>
-      </c>
+      <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="9"/>
       <c r="J16" s="5"/>
@@ -7468,10 +7467,10 @@
     </row>
     <row r="17" ht="14.25" spans="2:10">
       <c r="B17" s="5" t="s">
-        <v>340</v>
+        <v>122</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>341</v>
+        <v>123</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>101</v>
@@ -7480,17 +7479,19 @@
         <v>102</v>
       </c>
       <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="9"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" ht="14.25" spans="2:10">
       <c r="B18" s="5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>101</v>
@@ -7506,28 +7507,9 @@
       <c r="I18" s="9"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" ht="14.25" spans="2:20">
-      <c r="B19" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="5"/>
+    <row r="19" ht="14.25" spans="12:20">
       <c r="L19" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -7567,7 +7549,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="12:20">
+    <row r="21" ht="14.25" spans="2:20">
+      <c r="B21" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="1"/>
       <c r="L21" s="5" t="s">
         <v>99</v>
       </c>
@@ -7589,22 +7582,38 @@
       <c r="T21" s="5"/>
     </row>
     <row r="22" ht="14.25" spans="2:20">
-      <c r="B22" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="1"/>
+      <c r="B22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="L22" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>101</v>
@@ -7619,38 +7628,30 @@
       <c r="T22" s="5"/>
     </row>
     <row r="23" ht="14.25" spans="2:20">
-      <c r="B23" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="B23" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="5"/>
       <c r="L23" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="M23" s="5" t="s">
         <v>344</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>345</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>101</v>
@@ -7666,10 +7667,10 @@
     </row>
     <row r="24" ht="14.25" spans="2:20">
       <c r="B24" s="5" t="s">
-        <v>99</v>
+        <v>345</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>100</v>
+        <v>346</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>101</v>
@@ -7677,10 +7678,10 @@
       <c r="E24" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="9"/>
       <c r="J24" s="5"/>
@@ -7688,7 +7689,7 @@
         <v>106</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>101</v>
@@ -7706,10 +7707,10 @@
     </row>
     <row r="25" ht="14.25" spans="2:20">
       <c r="B25" s="5" t="s">
-        <v>347</v>
+        <v>106</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>348</v>
+        <v>107</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>101</v>
@@ -7728,7 +7729,7 @@
         <v>281</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>119</v>
@@ -7742,21 +7743,17 @@
     </row>
     <row r="26" ht="14.25" spans="2:20">
       <c r="B26" s="5" t="s">
-        <v>106</v>
+        <v>349</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>107</v>
+        <v>350</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>102</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="7" t="s">
-        <v>102</v>
-      </c>
+      <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="9"/>
       <c r="J26" s="5"/>
@@ -7782,17 +7779,21 @@
     </row>
     <row r="27" ht="14.25" spans="2:20">
       <c r="B27" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27" s="6"/>
+        <v>101</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="H27" s="7"/>
       <c r="I27" s="9"/>
       <c r="J27" s="5"/>
@@ -7818,10 +7819,10 @@
     </row>
     <row r="28" ht="14.25" spans="2:10">
       <c r="B28" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>101</v>
@@ -7830,19 +7831,17 @@
         <v>102</v>
       </c>
       <c r="F28" s="7"/>
-      <c r="G28" s="7" t="s">
-        <v>102</v>
-      </c>
+      <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="9"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" ht="14.25" spans="2:10">
       <c r="B29" s="5" t="s">
-        <v>354</v>
+        <v>122</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>355</v>
+        <v>123</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>101</v>
@@ -7851,17 +7850,19 @@
         <v>102</v>
       </c>
       <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="G29" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="H29" s="7"/>
       <c r="I29" s="9"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" ht="14.25" spans="2:10">
       <c r="B30" s="5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>101</v>
@@ -7877,75 +7878,75 @@
       <c r="I30" s="9"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" ht="14.25" spans="2:10">
-      <c r="B31" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="5"/>
+    <row r="33" ht="14.25" spans="2:10">
+      <c r="B33" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="1"/>
     </row>
     <row r="34" ht="14.25" spans="2:10">
-      <c r="B34" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="1"/>
+      <c r="B34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="35" ht="14.25" spans="2:10">
-      <c r="B35" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="B35" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="5"/>
     </row>
     <row r="36" ht="14.25" spans="2:10">
       <c r="B36" s="5" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>101</v>
@@ -7953,20 +7954,20 @@
       <c r="E36" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="H36" s="7"/>
       <c r="I36" s="9"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" ht="14.25" spans="2:10">
       <c r="B37" s="5" t="s">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>101</v>
@@ -7975,26 +7976,22 @@
         <v>102</v>
       </c>
       <c r="F37" s="7"/>
-      <c r="G37" s="7" t="s">
-        <v>102</v>
-      </c>
+      <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="9"/>
       <c r="J37" s="5"/>
     </row>
     <row r="38" ht="14.25" spans="2:10">
       <c r="B38" s="5" t="s">
-        <v>246</v>
+        <v>333</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>247</v>
+        <v>356</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>102</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="E38" s="6"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -8003,67 +8000,71 @@
     </row>
     <row r="39" ht="14.25" spans="2:10">
       <c r="B39" s="5" t="s">
-        <v>334</v>
+        <v>173</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>357</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E39" s="6"/>
+        <v>142</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="G39" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="H39" s="7"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="5"/>
+      <c r="J39" s="5" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="40" ht="14.25" spans="2:10">
       <c r="B40" s="5" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>358</v>
+        <v>118</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>102</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E40" s="6"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="7" t="s">
-        <v>102</v>
-      </c>
+      <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="5" t="s">
-        <v>359</v>
-      </c>
+      <c r="J40" s="5"/>
     </row>
     <row r="41" ht="14.25" spans="2:10">
       <c r="B41" s="5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E41" s="6"/>
+        <v>101</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
+      <c r="G41" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="H41" s="7"/>
       <c r="I41" s="9"/>
       <c r="J41" s="5"/>
     </row>
     <row r="42" ht="14.25" spans="2:10">
       <c r="B42" s="5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>101</v>
@@ -8079,75 +8080,75 @@
       <c r="I42" s="9"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" ht="14.25" spans="2:10">
-      <c r="B43" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="5"/>
+    <row r="45" ht="14.25" spans="2:10">
+      <c r="B45" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="1"/>
     </row>
     <row r="46" ht="14.25" spans="2:10">
-      <c r="B46" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="1"/>
+      <c r="B46" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="47" ht="14.25" spans="2:10">
-      <c r="B47" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="B47" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="5"/>
     </row>
     <row r="48" ht="14.25" spans="2:10">
       <c r="B48" s="5" t="s">
-        <v>99</v>
+        <v>321</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>100</v>
+        <v>322</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>101</v>
@@ -8155,27 +8156,25 @@
       <c r="E48" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="H48" s="7"/>
       <c r="I48" s="9"/>
       <c r="J48" s="5"/>
     </row>
     <row r="49" ht="14.25" spans="2:10">
       <c r="B49" s="5" t="s">
-        <v>320</v>
+        <v>111</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>321</v>
+        <v>112</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>102</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="E49" s="6"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7" t="s">
         <v>102</v>
@@ -8186,10 +8185,10 @@
     </row>
     <row r="50" ht="14.25" spans="2:10">
       <c r="B50" s="5" t="s">
-        <v>111</v>
+        <v>360</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>112</v>
+        <v>361</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>113</v>
@@ -8205,15 +8204,17 @@
     </row>
     <row r="51" ht="14.25" spans="2:10">
       <c r="B51" s="5" t="s">
-        <v>361</v>
+        <v>122</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>362</v>
+        <v>123</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E51" s="6"/>
+        <v>101</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7" t="s">
         <v>102</v>
@@ -8224,10 +8225,10 @@
     </row>
     <row r="52" ht="14.25" spans="2:10">
       <c r="B52" s="5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>101</v>
@@ -8242,27 +8243,6 @@
       <c r="H52" s="7"/>
       <c r="I52" s="9"/>
       <c r="J52" s="5"/>
-    </row>
-    <row r="53" ht="14.25" spans="2:10">
-      <c r="B53" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H53" s="7"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8360,7 +8340,7 @@
     <row r="6" ht="14.25" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -8428,7 +8408,7 @@
         <v>297</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>139</v>
@@ -8444,10 +8424,10 @@
     </row>
     <row r="10" ht="14.25" spans="2:10">
       <c r="B10" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>365</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>366</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>113</v>
@@ -8461,10 +8441,10 @@
     </row>
     <row r="11" ht="14.25" spans="2:10">
       <c r="B11" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>367</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>368</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>139</v>
@@ -8475,7 +8455,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="9"/>
       <c r="J11" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:10">
@@ -8539,7 +8519,7 @@
     </row>
     <row r="17" ht="14.25" spans="2:10">
       <c r="B17" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -8602,10 +8582,10 @@
     </row>
     <row r="20" ht="14.25" spans="2:10">
       <c r="B20" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>371</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>372</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>113</v>
@@ -8639,7 +8619,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="9"/>
       <c r="J21" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="2:10">
@@ -8703,7 +8683,7 @@
     </row>
     <row r="27" ht="14.25" spans="2:10">
       <c r="B27" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -8766,10 +8746,10 @@
     </row>
     <row r="30" ht="14.25" spans="2:10">
       <c r="B30" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>376</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>101</v>
@@ -8787,10 +8767,10 @@
     </row>
     <row r="31" ht="14.25" spans="2:10">
       <c r="B31" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>377</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>378</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>101</v>
@@ -8805,15 +8785,15 @@
       <c r="H31" s="7"/>
       <c r="I31" s="9"/>
       <c r="J31" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="2:10">
       <c r="B32" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>380</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>381</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>101</v>
@@ -8834,7 +8814,7 @@
         <v>173</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>142</v>
@@ -8849,15 +8829,15 @@
       <c r="H33" s="7"/>
       <c r="I33" s="9"/>
       <c r="J33" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="2:10">
       <c r="B34" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>385</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>113</v>
@@ -8871,10 +8851,10 @@
     </row>
     <row r="35" ht="14.25" spans="2:10">
       <c r="B35" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>386</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>387</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>113</v>
@@ -8888,10 +8868,10 @@
     </row>
     <row r="36" ht="14.25" spans="2:10">
       <c r="B36" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>388</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>389</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>113</v>
@@ -8905,10 +8885,10 @@
     </row>
     <row r="37" ht="14.25" spans="2:10">
       <c r="B37" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>391</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>113</v>
@@ -8922,10 +8902,10 @@
     </row>
     <row r="38" ht="14.25" spans="2:10">
       <c r="B38" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>392</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>393</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>113</v>
@@ -8942,7 +8922,7 @@
         <v>222</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>224</v>
@@ -8956,10 +8936,10 @@
     </row>
     <row r="40" ht="14.25" spans="2:10">
       <c r="B40" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>395</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>396</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>119</v>
@@ -8973,10 +8953,10 @@
     </row>
     <row r="41" ht="14.25" spans="2:10">
       <c r="B41" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>397</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>398</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>101</v>
@@ -8989,15 +8969,15 @@
       <c r="H41" s="7"/>
       <c r="I41" s="9"/>
       <c r="J41" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="2:10">
       <c r="B42" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>401</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>101</v>
@@ -9072,7 +9052,7 @@
     </row>
     <row r="48" ht="14.25" spans="2:10">
       <c r="B48" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -9135,10 +9115,10 @@
     </row>
     <row r="51" ht="14.25" spans="2:10">
       <c r="B51" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>113</v>
